--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_11_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_11_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56708.52433882786</v>
+        <v>83340.69021666322</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6666477.395686636</v>
+        <v>6621790.939182002</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22431059.99782228</v>
+        <v>22439990.63770758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4963317.981196385</v>
+        <v>4962935.916265002</v>
       </c>
     </row>
     <row r="11">
@@ -7979,25 +7981,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K2" t="n">
-        <v>101.6976762459175</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L2" t="n">
-        <v>80.69006165554137</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M2" t="n">
-        <v>50.75625738522407</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N2" t="n">
-        <v>45.89184343902701</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O2" t="n">
-        <v>59.7677186643362</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P2" t="n">
-        <v>93.52675000186332</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q2" t="n">
-        <v>129.5990890302214</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R2" t="n">
         <v>42.58424007769262</v>
@@ -8058,10 +8060,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>54.86578968612498</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L3" t="n">
-        <v>16.68948144623957</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.027508785057847</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P3" t="n">
-        <v>29.46478203976346</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.21301196989599</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R3" t="n">
         <v>29.49804203773589</v>
@@ -8140,16 +8142,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L4" t="n">
-        <v>77.10433979128307</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M4" t="n">
-        <v>77.2804576278842</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N4" t="n">
-        <v>65.75988935332771</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O4" t="n">
-        <v>85.77219275774588</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P4" t="n">
         <v>87.48425302749862</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>104.889258789408</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K5" t="n">
-        <v>94.6755543817487</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L5" t="n">
-        <v>71.97849854454964</v>
+        <v>85.78632439852493</v>
       </c>
       <c r="M5" t="n">
-        <v>41.06296488573625</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N5" t="n">
-        <v>36.04170333287215</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O5" t="n">
-        <v>50.46651067918273</v>
+        <v>65.20892354519972</v>
       </c>
       <c r="P5" t="n">
-        <v>85.58838417758693</v>
+        <v>98.17069248095632</v>
       </c>
       <c r="Q5" t="n">
-        <v>123.6377068975464</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R5" t="n">
         <v>42.58424007769262</v>
@@ -8295,10 +8297,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>50.09627633166346</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L6" t="n">
-        <v>10.27628214666007</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P6" t="n">
-        <v>23.82458668363597</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.442690741435</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R6" t="n">
         <v>29.49804203773589</v>
@@ -8377,16 +8379,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L7" t="n">
-        <v>73.42283224274789</v>
+        <v>79.25802099849831</v>
       </c>
       <c r="M7" t="n">
-        <v>73.3988241034014</v>
+        <v>79.55121249250526</v>
       </c>
       <c r="N7" t="n">
-        <v>61.97055239817956</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O7" t="n">
-        <v>82.27212675770768</v>
+        <v>87.8197306940173</v>
       </c>
       <c r="P7" t="n">
         <v>87.48425302749862</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>97.38162427947184</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K8" t="n">
-        <v>83.42355640483248</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L8" t="n">
-        <v>58.01940008446331</v>
+        <v>71.97849854454964</v>
       </c>
       <c r="M8" t="n">
-        <v>25.53077821856496</v>
+        <v>41.06296488573625</v>
       </c>
       <c r="N8" t="n">
-        <v>20.25818964702478</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O8" t="n">
-        <v>35.5625862733917</v>
+        <v>50.46651067918273</v>
       </c>
       <c r="P8" t="n">
-        <v>72.86822951172195</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q8" t="n">
-        <v>114.085400487321</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R8" t="n">
         <v>42.58424007769262</v>
@@ -8529,13 +8531,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J9" t="n">
-        <v>81.18949827734528</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>42.4537780023314</v>
+        <v>50.09627633166346</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>14.78693852483815</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.40126228781628</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R9" t="n">
         <v>29.49804203773589</v>
@@ -8614,16 +8616,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>67.52371566667536</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M10" t="n">
-        <v>67.17903279110968</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N10" t="n">
-        <v>55.89865382137701</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O10" t="n">
-        <v>76.66374565676749</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P10" t="n">
         <v>87.48425302749862</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>85.0980159762087</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K11" t="n">
-        <v>65.01361175520637</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L11" t="n">
-        <v>35.18023582793882</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.17754604002829</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P11" t="n">
-        <v>52.0561618403911</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.45640440597657</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8766,10 +8768,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>73.87346532306307</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K12" t="n">
-        <v>29.94951240287881</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>61.51658548073077</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,19 +8853,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>57.87188228828438</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M13" t="n">
-        <v>57.00252778049483</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N13" t="n">
-        <v>45.96412335430747</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O13" t="n">
-        <v>67.48759882007782</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P13" t="n">
-        <v>81.23780951643748</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q13" t="n">
         <v>42.34223702878295</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>85.0980159762087</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K14" t="n">
-        <v>65.01361175520637</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L14" t="n">
-        <v>35.18023582793882</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>11.17754604002829</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P14" t="n">
-        <v>52.0561618403911</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.45640440597657</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9003,10 +9005,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>73.87346532306307</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K15" t="n">
-        <v>29.94951240287881</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>61.51658548073077</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,19 +9090,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>57.87188228828438</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M16" t="n">
-        <v>57.00252778049483</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N16" t="n">
-        <v>45.96412335430747</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O16" t="n">
-        <v>67.48759882007782</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P16" t="n">
-        <v>81.23780951643748</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q16" t="n">
         <v>42.34223702878295</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>85.0980159762087</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K17" t="n">
-        <v>65.01361175520637</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L17" t="n">
-        <v>35.18023582793882</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>11.17754604002829</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P17" t="n">
-        <v>52.0561618403911</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.45640440597657</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9240,10 +9242,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>73.87346532306307</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K18" t="n">
-        <v>29.94951240287881</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.51658548073077</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,19 +9327,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>57.87188228828438</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M19" t="n">
-        <v>57.00252778049483</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N19" t="n">
-        <v>45.96412335430747</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O19" t="n">
-        <v>67.48759882007782</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P19" t="n">
-        <v>81.23780951643748</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q19" t="n">
         <v>42.34223702878295</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>85.0980159762087</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K20" t="n">
-        <v>65.01361175520637</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L20" t="n">
-        <v>35.18023582793882</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>11.17754604002829</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P20" t="n">
-        <v>52.0561618403911</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q20" t="n">
-        <v>98.45640440597657</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9477,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>73.87346532306307</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K21" t="n">
-        <v>29.94951240287881</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.51658548073077</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,19 +9564,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>57.87188228828438</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M22" t="n">
-        <v>57.00252778049483</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N22" t="n">
-        <v>45.96412335430747</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O22" t="n">
-        <v>67.48759882007782</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P22" t="n">
-        <v>81.23780951643748</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q22" t="n">
         <v>42.34223702878295</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>85.0980159762087</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K23" t="n">
-        <v>65.01361175520637</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L23" t="n">
-        <v>35.18023582793882</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.17754604002829</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P23" t="n">
-        <v>52.0561618403911</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.45640440597657</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9714,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>73.87346532306307</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K24" t="n">
-        <v>29.94951240287881</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>61.51658548073077</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,19 +9801,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>57.87188228828438</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M25" t="n">
-        <v>57.00252778049483</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N25" t="n">
-        <v>45.96412335430747</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O25" t="n">
-        <v>67.48759882007782</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P25" t="n">
-        <v>81.23780951643748</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q25" t="n">
         <v>42.34223702878295</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>85.0980159762087</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K26" t="n">
-        <v>65.01361175520637</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L26" t="n">
-        <v>35.18023582793882</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>11.17754604002829</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P26" t="n">
-        <v>52.0561618403911</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q26" t="n">
-        <v>98.45640440597657</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9951,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>73.87346532306307</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K27" t="n">
-        <v>29.94951240287881</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>61.51658548073077</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,19 +10038,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>57.87188228828438</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M28" t="n">
-        <v>57.00252778049483</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N28" t="n">
-        <v>45.96412335430747</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O28" t="n">
-        <v>67.48759882007782</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P28" t="n">
-        <v>81.23780951643748</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q28" t="n">
         <v>42.34223702878295</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>85.0980159762087</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K29" t="n">
-        <v>65.01361175520637</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L29" t="n">
-        <v>35.18023582793882</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>11.17754604002829</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P29" t="n">
-        <v>52.0561618403911</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q29" t="n">
-        <v>98.45640440597657</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10188,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>73.87346532306307</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K30" t="n">
-        <v>29.94951240287881</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.51658548073077</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,19 +10275,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>57.87188228828438</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M31" t="n">
-        <v>57.00252778049483</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N31" t="n">
-        <v>45.96412335430747</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O31" t="n">
-        <v>67.48759882007782</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P31" t="n">
-        <v>81.23780951643748</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>85.0980159762087</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K32" t="n">
-        <v>65.01361175520637</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L32" t="n">
-        <v>35.18023582793882</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>11.17754604002829</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P32" t="n">
-        <v>52.0561618403911</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.45640440597657</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10425,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>73.87346532306307</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K33" t="n">
-        <v>29.94951240287881</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.51658548073077</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,19 +10512,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>57.87188228828438</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M34" t="n">
-        <v>57.00252778049483</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N34" t="n">
-        <v>45.96412335430747</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O34" t="n">
-        <v>67.48759882007782</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P34" t="n">
-        <v>81.23780951643748</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q34" t="n">
         <v>42.34223702878295</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>85.0980159762087</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K35" t="n">
-        <v>65.01361175520637</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L35" t="n">
-        <v>35.18023582793882</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>11.17754604002829</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P35" t="n">
-        <v>52.0561618403911</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.45640440597657</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10662,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>73.87346532306307</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K36" t="n">
-        <v>29.94951240287881</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>61.51658548073077</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,19 +10749,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>57.87188228828438</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M37" t="n">
-        <v>57.00252778049483</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N37" t="n">
-        <v>45.96412335430747</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O37" t="n">
-        <v>67.48759882007782</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P37" t="n">
-        <v>81.23780951643748</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q37" t="n">
         <v>42.34223702878295</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>85.0980159762087</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K38" t="n">
-        <v>65.01361175520637</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L38" t="n">
-        <v>35.18023582793882</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>11.17754604002829</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P38" t="n">
-        <v>52.0561618403911</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.45640440597657</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10899,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>73.87346532306307</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K39" t="n">
-        <v>29.94951240287881</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.51658548073077</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,19 +10986,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>57.87188228828438</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M40" t="n">
-        <v>57.00252778049483</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N40" t="n">
-        <v>45.96412335430747</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O40" t="n">
-        <v>67.48759882007782</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P40" t="n">
-        <v>81.23780951643748</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q40" t="n">
         <v>42.34223702878295</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>85.0980159762087</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K41" t="n">
-        <v>65.01361175520637</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L41" t="n">
-        <v>35.18023582793882</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>11.17754604002829</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P41" t="n">
-        <v>52.0561618403911</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.45640440597657</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11136,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>73.87346532306307</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K42" t="n">
-        <v>29.94951240287881</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>61.51658548073077</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,19 +11223,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>57.87188228828438</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M43" t="n">
-        <v>57.00252778049483</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N43" t="n">
-        <v>45.96412335430747</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O43" t="n">
-        <v>67.48759882007782</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P43" t="n">
-        <v>81.23780951643748</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q43" t="n">
         <v>42.34223702878295</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>85.0980159762087</v>
+        <v>79.46749020986019</v>
       </c>
       <c r="K44" t="n">
-        <v>65.01361175520637</v>
+        <v>56.57491319468375</v>
       </c>
       <c r="L44" t="n">
-        <v>35.18023582793882</v>
+        <v>24.71128406284015</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1178073473550967</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>11.17754604002829</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>52.0561618403911</v>
+        <v>42.51638489689412</v>
       </c>
       <c r="Q44" t="n">
-        <v>98.45640440597657</v>
+        <v>91.29242921516939</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11373,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>73.87346532306307</v>
+        <v>70.51996274958896</v>
       </c>
       <c r="K45" t="n">
-        <v>29.94951240287881</v>
+        <v>24.21784236678039</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.51658548073077</v>
+        <v>56.98567517487724</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,19 +11460,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>57.87188228828438</v>
+        <v>53.44770209726541</v>
       </c>
       <c r="M46" t="n">
-        <v>57.00252778049483</v>
+        <v>52.33785008490106</v>
       </c>
       <c r="N46" t="n">
-        <v>45.96412335430747</v>
+        <v>41.41036126824763</v>
       </c>
       <c r="O46" t="n">
-        <v>67.48759882007782</v>
+        <v>63.28146248584991</v>
       </c>
       <c r="P46" t="n">
-        <v>81.23780951643748</v>
+        <v>77.63873325000012</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -22559,16 +22561,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G2" t="n">
-        <v>417.9335161168677</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H2" t="n">
-        <v>337.7565816866972</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I2" t="n">
-        <v>206.1329861685091</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>138.0543947935843</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9021266852166</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T2" t="n">
-        <v>218.5057460574135</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U2" t="n">
-        <v>250.0781689449873</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -22638,16 +22640,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.2605703896413</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H3" t="n">
-        <v>121.0607743439406</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I3" t="n">
-        <v>90.69820171619743</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J3" t="n">
-        <v>6.744564135339203</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>104.6672283897153</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S3" t="n">
-        <v>182.6000704870501</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T3" t="n">
-        <v>213.0199265699567</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U3" t="n">
-        <v>237.1962251491922</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V3" t="n">
         <v>240.6489209154022</v>
@@ -22717,19 +22719,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>168.2949770100594</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2164852645116</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I4" t="n">
-        <v>152.6495179793835</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J4" t="n">
-        <v>91.54969484442688</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K4" t="n">
-        <v>19.88364031691904</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>9.399185363825367</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.23694401510255</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R4" t="n">
-        <v>185.183811174339</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S4" t="n">
-        <v>228.3660933928399</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T4" t="n">
-        <v>222.0276946227434</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6344225367242</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V4" t="n">
         <v>245.1090151844499</v>
@@ -22796,16 +22798,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>417.8783123837688</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H5" t="n">
-        <v>337.191226455099</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I5" t="n">
-        <v>204.0047442482169</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>134.5867032943157</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S5" t="n">
-        <v>205.6441716172273</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T5" t="n">
-        <v>218.2640917157734</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U5" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22875,16 +22877,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.2310337884838</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H6" t="n">
-        <v>120.7755129590769</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I6" t="n">
-        <v>89.68126172020311</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J6" t="n">
-        <v>3.954003058433003</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.8333681880216</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S6" t="n">
-        <v>182.0514410751984</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T6" t="n">
-        <v>212.9008733398524</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U6" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22954,19 +22956,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.2702145158476</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H7" t="n">
-        <v>161.9963241796108</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I7" t="n">
-        <v>151.9048422443612</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J7" t="n">
-        <v>89.79898650365655</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K7" t="n">
-        <v>17.00668871668184</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6.404274245706759</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q7" t="n">
-        <v>91.16342279524457</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R7" t="n">
-        <v>184.0703993891455</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S7" t="n">
-        <v>227.9345506528043</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T7" t="n">
-        <v>221.9218912383841</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23033,13 +23035,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>417.7898558879744</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H8" t="n">
-        <v>336.2853213675438</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I8" t="n">
-        <v>200.5945251941005</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>129.0301979403661</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S8" t="n">
-        <v>203.6284692193107</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8768734054331</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U8" t="n">
-        <v>250.0666761266758</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23112,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.1837053907575</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H9" t="n">
-        <v>120.3184202757733</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I9" t="n">
-        <v>88.05175328971565</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>99.89485591515788</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S9" t="n">
-        <v>181.1723368455023</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T9" t="n">
-        <v>212.7101066841048</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U9" t="n">
-        <v>237.1911682413709</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23191,19 +23193,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.2305359770579</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6435458983708</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I10" t="n">
-        <v>150.711600368756</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J10" t="n">
-        <v>86.99371381121945</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K10" t="n">
-        <v>12.39676393728799</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.605335336077985</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q10" t="n">
-        <v>87.84088624258442</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R10" t="n">
-        <v>182.2863079995616</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S10" t="n">
-        <v>227.2430619358953</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T10" t="n">
-        <v>221.7523556635551</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6309075712877</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23270,13 +23272,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H11" t="n">
-        <v>334.8031257118105</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I11" t="n">
-        <v>195.0148988772292</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>119.9389275525271</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S11" t="n">
-        <v>200.3304798620524</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2433265744337</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0550978864748</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,13 +23351,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H12" t="n">
-        <v>119.5705485629778</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I12" t="n">
-        <v>85.3856347858804</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.08701215206335</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S12" t="n">
-        <v>179.733991385153</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T12" t="n">
-        <v>212.3979840210444</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1860737474145</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H13" t="n">
-        <v>161.0663480847431</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I13" t="n">
-        <v>148.7592789296147</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J13" t="n">
-        <v>82.40386984743404</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K13" t="n">
-        <v>4.854240360436052</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.40472155820389</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R13" t="n">
-        <v>179.367268749866</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S13" t="n">
-        <v>226.1116833993675</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T13" t="n">
-        <v>221.4749702111983</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,13 +23509,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H14" t="n">
-        <v>334.8031257118105</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I14" t="n">
-        <v>195.0148988772292</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>119.9389275525271</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S14" t="n">
-        <v>200.3304798620524</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2433265744337</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0550978864748</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,13 +23588,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H15" t="n">
-        <v>119.5705485629778</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I15" t="n">
-        <v>85.3856347858804</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.08701215206335</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S15" t="n">
-        <v>179.733991385153</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T15" t="n">
-        <v>212.3979840210444</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1860737474145</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H16" t="n">
-        <v>161.0663480847431</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I16" t="n">
-        <v>148.7592789296147</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J16" t="n">
-        <v>82.40386984743404</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K16" t="n">
-        <v>4.854240360436052</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.40472155820389</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R16" t="n">
-        <v>179.367268749866</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S16" t="n">
-        <v>226.1116833993675</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T16" t="n">
-        <v>221.4749702111983</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,13 +23746,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H17" t="n">
-        <v>334.8031257118105</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I17" t="n">
-        <v>195.0148988772292</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>119.9389275525271</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S17" t="n">
-        <v>200.3304798620524</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2433265744337</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0550978864748</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,13 +23825,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H18" t="n">
-        <v>119.5705485629778</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I18" t="n">
-        <v>85.3856347858804</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.08701215206335</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S18" t="n">
-        <v>179.733991385153</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T18" t="n">
-        <v>212.3979840210444</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1860737474145</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H19" t="n">
-        <v>161.0663480847431</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I19" t="n">
-        <v>148.7592789296147</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J19" t="n">
-        <v>82.40386984743404</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K19" t="n">
-        <v>4.854240360436052</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.40472155820389</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R19" t="n">
-        <v>179.367268749866</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S19" t="n">
-        <v>226.1116833993675</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T19" t="n">
-        <v>221.4749702111983</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,13 +23983,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H20" t="n">
-        <v>334.8031257118105</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I20" t="n">
-        <v>195.0148988772292</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>119.9389275525271</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S20" t="n">
-        <v>200.3304798620524</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2433265744337</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0550978864748</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,13 +24062,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H21" t="n">
-        <v>119.5705485629778</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I21" t="n">
-        <v>85.3856347858804</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>95.08701215206335</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S21" t="n">
-        <v>179.733991385153</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T21" t="n">
-        <v>212.3979840210444</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1860737474145</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H22" t="n">
-        <v>161.0663480847431</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I22" t="n">
-        <v>148.7592789296147</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J22" t="n">
-        <v>82.40386984743404</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K22" t="n">
-        <v>4.854240360436052</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.40472155820389</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R22" t="n">
-        <v>179.367268749866</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S22" t="n">
-        <v>226.1116833993675</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T22" t="n">
-        <v>221.4749702111983</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,13 +24220,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H23" t="n">
-        <v>334.8031257118105</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I23" t="n">
-        <v>195.0148988772292</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>119.9389275525271</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S23" t="n">
-        <v>200.3304798620524</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2433265744337</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0550978864748</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,13 +24299,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H24" t="n">
-        <v>119.5705485629778</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I24" t="n">
-        <v>85.3856347858804</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>95.08701215206335</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S24" t="n">
-        <v>179.733991385153</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T24" t="n">
-        <v>212.3979840210444</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1860737474145</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H25" t="n">
-        <v>161.0663480847431</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I25" t="n">
-        <v>148.7592789296147</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J25" t="n">
-        <v>82.40386984743404</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K25" t="n">
-        <v>4.854240360436052</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.40472155820389</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R25" t="n">
-        <v>179.367268749866</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S25" t="n">
-        <v>226.1116833993675</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T25" t="n">
-        <v>221.4749702111983</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,13 +24457,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H26" t="n">
-        <v>334.8031257118105</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I26" t="n">
-        <v>195.0148988772292</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>119.9389275525271</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S26" t="n">
-        <v>200.3304798620524</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2433265744337</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0550978864748</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,13 +24536,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H27" t="n">
-        <v>119.5705485629778</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I27" t="n">
-        <v>85.3856347858804</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>95.08701215206335</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S27" t="n">
-        <v>179.733991385153</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T27" t="n">
-        <v>212.3979840210444</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1860737474145</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H28" t="n">
-        <v>161.0663480847431</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I28" t="n">
-        <v>148.7592789296147</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J28" t="n">
-        <v>82.40386984743404</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K28" t="n">
-        <v>4.854240360436052</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.40472155820389</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R28" t="n">
-        <v>179.367268749866</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S28" t="n">
-        <v>226.1116833993675</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4749702111983</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,13 +24694,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H29" t="n">
-        <v>334.8031257118105</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I29" t="n">
-        <v>195.0148988772292</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>119.9389275525271</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S29" t="n">
-        <v>200.3304798620524</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2433265744337</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0550978864748</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,13 +24773,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H30" t="n">
-        <v>119.5705485629778</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I30" t="n">
-        <v>85.3856347858804</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>95.08701215206335</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S30" t="n">
-        <v>179.733991385153</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T30" t="n">
-        <v>212.3979840210444</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1860737474145</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H31" t="n">
-        <v>161.0663480847431</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I31" t="n">
-        <v>148.7592789296147</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J31" t="n">
-        <v>82.40386984743404</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K31" t="n">
-        <v>4.854240360436052</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.40472155820389</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R31" t="n">
-        <v>179.367268749866</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S31" t="n">
-        <v>226.1116833993675</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4749702111983</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H32" t="n">
-        <v>334.8031257118105</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I32" t="n">
-        <v>195.0148988772292</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>119.9389275525271</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S32" t="n">
-        <v>200.3304798620524</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2433265744337</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0550978864748</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,13 +25010,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H33" t="n">
-        <v>119.5705485629778</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I33" t="n">
-        <v>85.3856347858804</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>95.08701215206335</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S33" t="n">
-        <v>179.733991385153</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T33" t="n">
-        <v>212.3979840210444</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1860737474145</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H34" t="n">
-        <v>161.0663480847431</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I34" t="n">
-        <v>148.7592789296147</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J34" t="n">
-        <v>82.40386984743404</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K34" t="n">
-        <v>4.854240360436052</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.40472155820389</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R34" t="n">
-        <v>179.367268749866</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S34" t="n">
-        <v>226.1116833993675</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4749702111983</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,13 +25168,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H35" t="n">
-        <v>334.8031257118105</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I35" t="n">
-        <v>195.0148988772292</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>119.9389275525271</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S35" t="n">
-        <v>200.3304798620524</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2433265744337</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0550978864748</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,13 +25247,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H36" t="n">
-        <v>119.5705485629778</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I36" t="n">
-        <v>85.3856347858804</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>95.08701215206335</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S36" t="n">
-        <v>179.733991385153</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T36" t="n">
-        <v>212.3979840210444</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1860737474145</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H37" t="n">
-        <v>161.0663480847431</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I37" t="n">
-        <v>148.7592789296147</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J37" t="n">
-        <v>82.40386984743404</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K37" t="n">
-        <v>4.854240360436052</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.40472155820389</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R37" t="n">
-        <v>179.367268749866</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S37" t="n">
-        <v>226.1116833993675</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4749702111983</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,13 +25405,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H38" t="n">
-        <v>334.8031257118105</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I38" t="n">
-        <v>195.0148988772292</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>119.9389275525271</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S38" t="n">
-        <v>200.3304798620524</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2433265744337</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0550978864748</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,13 +25484,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H39" t="n">
-        <v>119.5705485629778</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I39" t="n">
-        <v>85.3856347858804</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>95.08701215206335</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S39" t="n">
-        <v>179.733991385153</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T39" t="n">
-        <v>212.3979840210444</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1860737474145</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H40" t="n">
-        <v>161.0663480847431</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I40" t="n">
-        <v>148.7592789296147</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J40" t="n">
-        <v>82.40386984743404</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K40" t="n">
-        <v>4.854240360436052</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.40472155820389</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R40" t="n">
-        <v>179.367268749866</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S40" t="n">
-        <v>226.1116833993675</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4749702111983</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H41" t="n">
-        <v>334.8031257118105</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I41" t="n">
-        <v>195.0148988772292</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>119.9389275525271</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S41" t="n">
-        <v>200.3304798620524</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2433265744337</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0550978864748</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,13 +25721,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H42" t="n">
-        <v>119.5705485629778</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I42" t="n">
-        <v>85.3856347858804</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>95.08701215206335</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S42" t="n">
-        <v>179.733991385153</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T42" t="n">
-        <v>212.3979840210444</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1860737474145</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H43" t="n">
-        <v>161.0663480847431</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I43" t="n">
-        <v>148.7592789296147</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J43" t="n">
-        <v>82.40386984743404</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K43" t="n">
-        <v>4.854240360436052</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.40472155820389</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R43" t="n">
-        <v>179.367268749866</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S43" t="n">
-        <v>226.1116833993675</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T43" t="n">
-        <v>221.4749702111983</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.6451278854616</v>
+        <v>417.5787878714249</v>
       </c>
       <c r="H44" t="n">
-        <v>334.8031257118105</v>
+        <v>334.1237210430571</v>
       </c>
       <c r="I44" t="n">
-        <v>195.0148988772292</v>
+        <v>192.4573254860788</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>119.9389275525271</v>
+        <v>115.7716966457934</v>
       </c>
       <c r="S44" t="n">
-        <v>200.3304798620524</v>
+        <v>198.8187567921908</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2433265744337</v>
+        <v>216.952923162988</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0550978864748</v>
+        <v>250.0497906853519</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,13 +25958,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1062690826207</v>
+        <v>148.0707740458651</v>
       </c>
       <c r="H45" t="n">
-        <v>119.5705485629778</v>
+        <v>119.227741234312</v>
       </c>
       <c r="I45" t="n">
-        <v>85.3856347858804</v>
+        <v>84.16354689758496</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>95.08701215206335</v>
+        <v>92.88320627350157</v>
       </c>
       <c r="S45" t="n">
-        <v>179.733991385153</v>
+        <v>179.0746866454165</v>
       </c>
       <c r="T45" t="n">
-        <v>212.3979840210444</v>
+        <v>212.2549141141216</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1860737474145</v>
+        <v>237.183738547628</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1358581311098</v>
       </c>
       <c r="H46" t="n">
-        <v>161.0663480847431</v>
+        <v>160.8017737771232</v>
       </c>
       <c r="I46" t="n">
-        <v>148.7592789296147</v>
+        <v>147.8643793287897</v>
       </c>
       <c r="J46" t="n">
-        <v>82.40386984743404</v>
+        <v>80.29999010268935</v>
       </c>
       <c r="K46" t="n">
-        <v>4.854240360436052</v>
+        <v>1.396919653500589</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.40472155820389</v>
+        <v>79.91290770596737</v>
       </c>
       <c r="R46" t="n">
-        <v>179.367268749866</v>
+        <v>178.0292477626592</v>
       </c>
       <c r="S46" t="n">
-        <v>226.1116833993675</v>
+        <v>225.5930852933272</v>
       </c>
       <c r="T46" t="n">
-        <v>221.4749702111983</v>
+        <v>221.3478230490496</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6257433251451</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>429670.5803195752</v>
+        <v>429338.0523099171</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>429595.6593425528</v>
+        <v>429338.0523099171</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>429569.0581701934</v>
+        <v>429595.6593425528</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>429111.6498042374</v>
+        <v>429112.0762819989</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>429111.6498042374</v>
+        <v>429112.0762819989</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>429111.6498042374</v>
+        <v>429112.0762819989</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>429111.6498042374</v>
+        <v>429112.0762819989</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>429111.6498042374</v>
+        <v>429112.0762819989</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>429111.6498042374</v>
+        <v>429112.0762819989</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>429111.6498042374</v>
+        <v>429112.0762819989</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>429111.6498042374</v>
+        <v>429112.0762819989</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>429111.6498042374</v>
+        <v>429112.0762819989</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>429111.6498042374</v>
+        <v>429112.0762819989</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>429111.6498042374</v>
+        <v>429112.0762819989</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429111.6498042374</v>
+        <v>429406.2315008219</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84203.37296691748</v>
+        <v>83928.79498487277</v>
       </c>
       <c r="C2" t="n">
-        <v>84560.85108676573</v>
+        <v>83928.79498487279</v>
       </c>
       <c r="D2" t="n">
-        <v>85127.07878798699</v>
+        <v>84560.85108676576</v>
       </c>
       <c r="E2" t="n">
-        <v>85926.24727358876</v>
+        <v>85929.89841117935</v>
       </c>
       <c r="F2" t="n">
-        <v>85926.24727358876</v>
+        <v>85929.89841117934</v>
       </c>
       <c r="G2" t="n">
-        <v>85926.24727358876</v>
+        <v>85929.89841117937</v>
       </c>
       <c r="H2" t="n">
-        <v>85926.24727358876</v>
+        <v>85929.89841117934</v>
       </c>
       <c r="I2" t="n">
-        <v>85926.24727358876</v>
+        <v>85929.89841117935</v>
       </c>
       <c r="J2" t="n">
-        <v>85926.24727358876</v>
+        <v>85929.89841117933</v>
       </c>
       <c r="K2" t="n">
-        <v>85926.24727358876</v>
+        <v>85929.89841117931</v>
       </c>
       <c r="L2" t="n">
-        <v>85926.24727358876</v>
+        <v>85929.89841117933</v>
       </c>
       <c r="M2" t="n">
-        <v>85926.24727358876</v>
+        <v>85929.89841117933</v>
       </c>
       <c r="N2" t="n">
-        <v>85926.24727358876</v>
+        <v>85929.89841117931</v>
       </c>
       <c r="O2" t="n">
-        <v>85926.24727358876</v>
+        <v>85929.89841117934</v>
       </c>
       <c r="P2" t="n">
-        <v>85926.24727358876</v>
+        <v>86287.26975901332</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314335.1613354153</v>
+        <v>306594.2889031769</v>
       </c>
       <c r="C3" t="n">
-        <v>12504.3216546034</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18844.15112059535</v>
+        <v>18639.93994907058</v>
       </c>
       <c r="E3" t="n">
-        <v>28923.3842114263</v>
+        <v>46735.18559752367</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10872.30883199167</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22687.61097947385</v>
+        <v>23682.20988303181</v>
       </c>
       <c r="C4" t="n">
+        <v>23682.20988303181</v>
+      </c>
+      <c r="D4" t="n">
         <v>20884.87908985157</v>
       </c>
-      <c r="D4" t="n">
-        <v>18121.510694923</v>
-      </c>
       <c r="E4" t="n">
-        <v>13801.45464855835</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="F4" t="n">
-        <v>13801.45464855836</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="G4" t="n">
-        <v>13801.45464855835</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="H4" t="n">
-        <v>13801.45464855836</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="I4" t="n">
-        <v>13801.45464855835</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="J4" t="n">
-        <v>13801.45464855836</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="K4" t="n">
-        <v>13801.45464855835</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="L4" t="n">
-        <v>13801.45464855836</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="M4" t="n">
-        <v>13801.45464855835</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="N4" t="n">
-        <v>13801.45464855836</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="O4" t="n">
-        <v>13801.45464855835</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="P4" t="n">
-        <v>13801.45464855836</v>
+        <v>12351.0943322575</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40738.86408331151</v>
+        <v>40563.74085539449</v>
       </c>
       <c r="C5" t="n">
+        <v>40563.74085539449</v>
+      </c>
+      <c r="D5" t="n">
         <v>41038.22012697312</v>
       </c>
-      <c r="D5" t="n">
-        <v>41517.8975895426</v>
-      </c>
       <c r="E5" t="n">
-        <v>8675.121365168401</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="F5" t="n">
-        <v>8675.121365168401</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="G5" t="n">
-        <v>8675.121365168401</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="H5" t="n">
-        <v>8675.121365168401</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="I5" t="n">
-        <v>8675.121365168401</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="J5" t="n">
-        <v>8675.121365168401</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="K5" t="n">
-        <v>8675.121365168401</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="L5" t="n">
-        <v>8675.121365168401</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="M5" t="n">
-        <v>8675.121365168401</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="N5" t="n">
-        <v>8675.121365168401</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="O5" t="n">
-        <v>8675.121365168401</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="P5" t="n">
-        <v>8675.121365168401</v>
+        <v>9034.86667628599</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293558.2634312832</v>
+        <v>-286911.4446567304</v>
       </c>
       <c r="C6" t="n">
-        <v>10133.43021533763</v>
+        <v>19682.84424644648</v>
       </c>
       <c r="D6" t="n">
-        <v>6643.519382926032</v>
+        <v>3997.811920870503</v>
       </c>
       <c r="E6" t="n">
-        <v>34526.2870484357</v>
+        <v>16731.7192660763</v>
       </c>
       <c r="F6" t="n">
-        <v>63449.671259862</v>
+        <v>63466.90486359994</v>
       </c>
       <c r="G6" t="n">
-        <v>63449.671259862</v>
+        <v>63466.90486359997</v>
       </c>
       <c r="H6" t="n">
-        <v>63449.671259862</v>
+        <v>63466.90486359994</v>
       </c>
       <c r="I6" t="n">
-        <v>63449.671259862</v>
+        <v>63466.90486359996</v>
       </c>
       <c r="J6" t="n">
-        <v>63449.671259862</v>
+        <v>63466.90486359993</v>
       </c>
       <c r="K6" t="n">
-        <v>63449.671259862</v>
+        <v>63466.90486359991</v>
       </c>
       <c r="L6" t="n">
-        <v>63449.671259862</v>
+        <v>63466.90486359993</v>
       </c>
       <c r="M6" t="n">
-        <v>63449.671259862</v>
+        <v>63466.90486359993</v>
       </c>
       <c r="N6" t="n">
-        <v>63449.671259862</v>
+        <v>63466.90486359991</v>
       </c>
       <c r="O6" t="n">
-        <v>63449.671259862</v>
+        <v>63466.90486359994</v>
       </c>
       <c r="P6" t="n">
-        <v>63449.671259862</v>
+        <v>54028.99991847816</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.2047744638306</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="C3" t="n">
+        <v>318.1715988713071</v>
+      </c>
+      <c r="D3" t="n">
         <v>339.9367030721617</v>
       </c>
-      <c r="D3" t="n">
-        <v>361.9402564010368</v>
-      </c>
       <c r="E3" t="n">
-        <v>397.9413470260735</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="F3" t="n">
-        <v>397.9413470260735</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="G3" t="n">
-        <v>397.9413470260735</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="H3" t="n">
-        <v>397.9413470260735</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="I3" t="n">
-        <v>397.9413470260735</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="J3" t="n">
-        <v>397.9413470260735</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="K3" t="n">
-        <v>397.9413470260735</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="L3" t="n">
-        <v>397.9413470260735</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="M3" t="n">
-        <v>397.9413470260735</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="N3" t="n">
-        <v>397.9413470260735</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="O3" t="n">
-        <v>397.9413470260735</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="P3" t="n">
-        <v>397.9413470260735</v>
+        <v>414.443425517706</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.2047744638306</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="C3" t="n">
-        <v>13.73192860833097</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22.00355332887523</v>
+        <v>21.76510420085447</v>
       </c>
       <c r="E3" t="n">
-        <v>36.00109062503662</v>
+        <v>58.17153483061884</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>16.33518761492553</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.311375977744042</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H2" t="n">
-        <v>13.43012923207117</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I2" t="n">
-        <v>50.55682238197722</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3013968910535</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K2" t="n">
-        <v>166.8119420289588</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L2" t="n">
-        <v>206.944964607843</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M2" t="n">
-        <v>230.2661471520487</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N2" t="n">
-        <v>233.9920941488139</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9520992701216</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P2" t="n">
-        <v>188.5775048195655</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q2" t="n">
-        <v>141.613852616607</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R2" t="n">
-        <v>82.37572126196423</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S2" t="n">
-        <v>29.88298009284238</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T2" t="n">
-        <v>5.740548342574546</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H3" t="n">
-        <v>6.776442578956182</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I3" t="n">
-        <v>24.15761773151954</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J3" t="n">
-        <v>66.29034949740922</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K3" t="n">
-        <v>113.300765862593</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L3" t="n">
-        <v>152.3468618852069</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M3" t="n">
         <v>173.4035213848624</v>
@@ -31142,25 +31144,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O3" t="n">
-        <v>166.9399094371643</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9839950057194</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.56475241505028</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R3" t="n">
-        <v>43.5637244085848</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S3" t="n">
-        <v>13.03280396088983</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T3" t="n">
-        <v>2.828133846530757</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04616105299016474</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H4" t="n">
-        <v>5.229971629928304</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I4" t="n">
-        <v>17.68992449059593</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J4" t="n">
-        <v>41.58843493451165</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K4" t="n">
-        <v>68.34257405979926</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L4" t="n">
-        <v>87.45496527182765</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M4" t="n">
-        <v>92.20899878819395</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N4" t="n">
-        <v>90.01647489425679</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O4" t="n">
-        <v>83.1447841535023</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P4" t="n">
-        <v>71.14472654863609</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.25692094403843</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R4" t="n">
-        <v>26.4493248278378</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S4" t="n">
-        <v>10.25138610896989</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T4" t="n">
-        <v>2.513381049147547</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03208571552103255</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36657971084286</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H5" t="n">
-        <v>13.99548446366944</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I5" t="n">
-        <v>52.68506430226941</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J5" t="n">
-        <v>115.9867447331493</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K5" t="n">
-        <v>173.8340638931276</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L5" t="n">
-        <v>215.6565277188348</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M5" t="n">
-        <v>239.9594396515365</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N5" t="n">
-        <v>243.8422342549688</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O5" t="n">
-        <v>230.2533072552751</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P5" t="n">
-        <v>196.5158706438419</v>
+        <v>183.9335623404725</v>
       </c>
       <c r="Q5" t="n">
-        <v>147.575234749282</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R5" t="n">
-        <v>85.84341276123287</v>
+        <v>80.34712240241105</v>
       </c>
       <c r="S5" t="n">
-        <v>31.1409351608317</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T5" t="n">
-        <v>5.982202684214622</v>
+        <v>5.599180599232749</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.6843690994590379</v>
       </c>
       <c r="H6" t="n">
-        <v>7.061703963819812</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I6" t="n">
-        <v>25.17455772751386</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J6" t="n">
-        <v>69.08091057431542</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K6" t="n">
-        <v>118.0702792170545</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L6" t="n">
-        <v>158.7600611847865</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M6" t="n">
         <v>173.4035213848624</v>
@@ -31379,25 +31381,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O6" t="n">
-        <v>173.9674182222222</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P6" t="n">
-        <v>139.6241903618469</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q6" t="n">
-        <v>93.33507364351127</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R6" t="n">
-        <v>45.39758461027851</v>
+        <v>42.4909165436059</v>
       </c>
       <c r="S6" t="n">
-        <v>13.58143337274154</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T6" t="n">
-        <v>2.947187076635061</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.5737520635384226</v>
       </c>
       <c r="H7" t="n">
-        <v>5.450132714829087</v>
+        <v>5.101177437641615</v>
       </c>
       <c r="I7" t="n">
-        <v>18.43460022561821</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J7" t="n">
-        <v>43.33914327528198</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K7" t="n">
-        <v>71.21952566003647</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L7" t="n">
-        <v>91.13647282036283</v>
+        <v>85.3012840646124</v>
       </c>
       <c r="M7" t="n">
-        <v>96.09063231267676</v>
+        <v>89.9382439235729</v>
       </c>
       <c r="N7" t="n">
-        <v>93.80581184940493</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O7" t="n">
-        <v>86.6448501535405</v>
+        <v>81.09724621723089</v>
       </c>
       <c r="P7" t="n">
-        <v>74.13963766675469</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q7" t="n">
-        <v>51.33044216389641</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R7" t="n">
-        <v>27.56273661303132</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S7" t="n">
-        <v>10.68292884900547</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T7" t="n">
-        <v>2.619184433506818</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.455036206637333</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H8" t="n">
-        <v>14.90138955122459</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I8" t="n">
-        <v>56.09528335638583</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J8" t="n">
-        <v>123.4943792430854</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K8" t="n">
-        <v>185.0860618700438</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L8" t="n">
-        <v>229.6156261789211</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M8" t="n">
-        <v>255.4916263187078</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N8" t="n">
-        <v>259.6257479408162</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O8" t="n">
-        <v>245.1572316610661</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P8" t="n">
-        <v>209.2360253097069</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.1275411595074</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R8" t="n">
-        <v>91.39991811518244</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S8" t="n">
-        <v>33.15663755874826</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T8" t="n">
-        <v>6.369420994554928</v>
+        <v>5.982202684214622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1164028965309866</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7785130043343056</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H9" t="n">
-        <v>7.518796647123428</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I9" t="n">
-        <v>26.80406615800132</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J9" t="n">
-        <v>73.55240625598807</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K9" t="n">
-        <v>125.7127775463865</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M9" t="n">
         <v>173.4035213848624</v>
@@ -31619,22 +31621,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>148.6618385206447</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q9" t="n">
-        <v>99.37650209712999</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R9" t="n">
-        <v>48.33609688314225</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S9" t="n">
-        <v>14.46053760243764</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T9" t="n">
-        <v>3.137953732382573</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0512179608114675</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6526791508871155</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H10" t="n">
-        <v>5.802910996069087</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I10" t="n">
-        <v>19.62784210122345</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J10" t="n">
-        <v>46.14441596771907</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K10" t="n">
-        <v>75.82945043943032</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L10" t="n">
-        <v>97.03558939643536</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3104236249685</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N10" t="n">
-        <v>99.87771042620749</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O10" t="n">
-        <v>92.2532312544807</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P10" t="n">
-        <v>78.93857657638347</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.65297871655656</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R10" t="n">
-        <v>29.34682800261521</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S10" t="n">
-        <v>11.37441756591454</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T10" t="n">
-        <v>2.788720008335857</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03560068095747907</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.599764209150043</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H11" t="n">
-        <v>16.38358520695788</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I11" t="n">
-        <v>61.67490967325708</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J11" t="n">
-        <v>135.7779875463486</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K11" t="n">
-        <v>203.4960065196699</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L11" t="n">
-        <v>252.4547904354456</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M11" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N11" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>269.5422718944295</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P11" t="n">
-        <v>230.0480929810378</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q11" t="n">
-        <v>172.7565372408518</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R11" t="n">
-        <v>100.4911885030215</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S11" t="n">
-        <v>36.45462691600664</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T11" t="n">
-        <v>7.002967825554316</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H12" t="n">
-        <v>8.266668359918999</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I12" t="n">
-        <v>29.47018466183658</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J12" t="n">
-        <v>80.86843921027028</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K12" t="n">
-        <v>138.2170431458391</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L12" t="n">
         <v>169.0363433314465</v>
@@ -31859,19 +31861,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
-        <v>109.2611789042155</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R12" t="n">
-        <v>53.14394064623678</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S12" t="n">
-        <v>15.89888306278698</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T12" t="n">
-        <v>3.450076395443032</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H13" t="n">
-        <v>6.380108809696723</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I13" t="n">
-        <v>21.58016354036478</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J13" t="n">
-        <v>50.73425993150448</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K13" t="n">
-        <v>83.37197401628225</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L13" t="n">
-        <v>106.6874227748263</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M13" t="n">
-        <v>112.4869286355833</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N13" t="n">
-        <v>109.812240893277</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O13" t="n">
-        <v>101.4293780911704</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P13" t="n">
-        <v>86.7903554235226</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.08914340093709</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R13" t="n">
-        <v>32.2658672523108</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S13" t="n">
-        <v>12.50579610244234</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T13" t="n">
-        <v>3.066105460692696</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.599764209150043</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H14" t="n">
-        <v>16.38358520695788</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I14" t="n">
-        <v>61.67490967325708</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J14" t="n">
-        <v>135.7779875463486</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K14" t="n">
-        <v>203.4960065196699</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L14" t="n">
-        <v>252.4547904354456</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M14" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N14" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>269.5422718944295</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P14" t="n">
-        <v>230.0480929810378</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q14" t="n">
-        <v>172.7565372408518</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R14" t="n">
-        <v>100.4911885030215</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S14" t="n">
-        <v>36.45462691600664</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T14" t="n">
-        <v>7.002967825554316</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H15" t="n">
-        <v>8.266668359918999</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I15" t="n">
-        <v>29.47018466183658</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J15" t="n">
-        <v>80.86843921027028</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K15" t="n">
-        <v>138.2170431458391</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L15" t="n">
         <v>169.0363433314465</v>
@@ -32096,19 +32098,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
-        <v>109.2611789042155</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R15" t="n">
-        <v>53.14394064623678</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S15" t="n">
-        <v>15.89888306278698</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T15" t="n">
-        <v>3.450076395443032</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H16" t="n">
-        <v>6.380108809696723</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I16" t="n">
-        <v>21.58016354036478</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J16" t="n">
-        <v>50.73425993150448</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K16" t="n">
-        <v>83.37197401628225</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L16" t="n">
-        <v>106.6874227748263</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M16" t="n">
-        <v>112.4869286355833</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N16" t="n">
-        <v>109.812240893277</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O16" t="n">
-        <v>101.4293780911704</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P16" t="n">
-        <v>86.7903554235226</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.08914340093709</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R16" t="n">
-        <v>32.2658672523108</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S16" t="n">
-        <v>12.50579610244234</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T16" t="n">
-        <v>3.066105460692696</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.599764209150043</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H17" t="n">
-        <v>16.38358520695788</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I17" t="n">
-        <v>61.67490967325708</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J17" t="n">
-        <v>135.7779875463486</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K17" t="n">
-        <v>203.4960065196699</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L17" t="n">
-        <v>252.4547904354456</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M17" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N17" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>269.5422718944295</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P17" t="n">
-        <v>230.0480929810378</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q17" t="n">
-        <v>172.7565372408518</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R17" t="n">
-        <v>100.4911885030215</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S17" t="n">
-        <v>36.45462691600664</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T17" t="n">
-        <v>7.002967825554316</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H18" t="n">
-        <v>8.266668359918999</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I18" t="n">
-        <v>29.47018466183658</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J18" t="n">
-        <v>80.86843921027028</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K18" t="n">
-        <v>138.2170431458391</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L18" t="n">
         <v>169.0363433314465</v>
@@ -32333,19 +32335,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
-        <v>109.2611789042155</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R18" t="n">
-        <v>53.14394064623678</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S18" t="n">
-        <v>15.89888306278698</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T18" t="n">
-        <v>3.450076395443032</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H19" t="n">
-        <v>6.380108809696723</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I19" t="n">
-        <v>21.58016354036478</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J19" t="n">
-        <v>50.73425993150448</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K19" t="n">
-        <v>83.37197401628225</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L19" t="n">
-        <v>106.6874227748263</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M19" t="n">
-        <v>112.4869286355833</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N19" t="n">
-        <v>109.812240893277</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O19" t="n">
-        <v>101.4293780911704</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P19" t="n">
-        <v>86.7903554235226</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.08914340093709</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R19" t="n">
-        <v>32.2658672523108</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S19" t="n">
-        <v>12.50579610244234</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T19" t="n">
-        <v>3.066105460692696</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.599764209150043</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H20" t="n">
-        <v>16.38358520695788</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I20" t="n">
-        <v>61.67490967325708</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J20" t="n">
-        <v>135.7779875463486</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K20" t="n">
-        <v>203.4960065196699</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L20" t="n">
-        <v>252.4547904354456</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M20" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N20" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>269.5422718944295</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P20" t="n">
-        <v>230.0480929810378</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q20" t="n">
-        <v>172.7565372408518</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R20" t="n">
-        <v>100.4911885030215</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S20" t="n">
-        <v>36.45462691600664</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T20" t="n">
-        <v>7.002967825554316</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H21" t="n">
-        <v>8.266668359918999</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I21" t="n">
-        <v>29.47018466183658</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J21" t="n">
-        <v>80.86843921027028</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K21" t="n">
-        <v>138.2170431458391</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L21" t="n">
         <v>169.0363433314465</v>
@@ -32570,19 +32572,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>109.2611789042155</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R21" t="n">
-        <v>53.14394064623678</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S21" t="n">
-        <v>15.89888306278698</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T21" t="n">
-        <v>3.450076395443032</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H22" t="n">
-        <v>6.380108809696723</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I22" t="n">
-        <v>21.58016354036478</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J22" t="n">
-        <v>50.73425993150448</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K22" t="n">
-        <v>83.37197401628225</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L22" t="n">
-        <v>106.6874227748263</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M22" t="n">
-        <v>112.4869286355833</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N22" t="n">
-        <v>109.812240893277</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O22" t="n">
-        <v>101.4293780911704</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P22" t="n">
-        <v>86.7903554235226</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.08914340093709</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R22" t="n">
-        <v>32.2658672523108</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S22" t="n">
-        <v>12.50579610244234</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T22" t="n">
-        <v>3.066105460692696</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.599764209150043</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H23" t="n">
-        <v>16.38358520695788</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I23" t="n">
-        <v>61.67490967325708</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J23" t="n">
-        <v>135.7779875463486</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K23" t="n">
-        <v>203.4960065196699</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L23" t="n">
-        <v>252.4547904354456</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M23" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N23" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O23" t="n">
-        <v>269.5422718944295</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P23" t="n">
-        <v>230.0480929810378</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q23" t="n">
-        <v>172.7565372408518</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R23" t="n">
-        <v>100.4911885030215</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S23" t="n">
-        <v>36.45462691600664</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T23" t="n">
-        <v>7.002967825554316</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H24" t="n">
-        <v>8.266668359918999</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I24" t="n">
-        <v>29.47018466183658</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J24" t="n">
-        <v>80.86843921027028</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K24" t="n">
-        <v>138.2170431458391</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L24" t="n">
         <v>169.0363433314465</v>
@@ -32807,19 +32809,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
-        <v>109.2611789042155</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R24" t="n">
-        <v>53.14394064623678</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S24" t="n">
-        <v>15.89888306278698</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T24" t="n">
-        <v>3.450076395443032</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H25" t="n">
-        <v>6.380108809696723</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I25" t="n">
-        <v>21.58016354036478</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J25" t="n">
-        <v>50.73425993150448</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K25" t="n">
-        <v>83.37197401628225</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L25" t="n">
-        <v>106.6874227748263</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M25" t="n">
-        <v>112.4869286355833</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N25" t="n">
-        <v>109.812240893277</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O25" t="n">
-        <v>101.4293780911704</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P25" t="n">
-        <v>86.7903554235226</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.08914340093709</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R25" t="n">
-        <v>32.2658672523108</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S25" t="n">
-        <v>12.50579610244234</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T25" t="n">
-        <v>3.066105460692696</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.599764209150043</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H26" t="n">
-        <v>16.38358520695788</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I26" t="n">
-        <v>61.67490967325708</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J26" t="n">
-        <v>135.7779875463486</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K26" t="n">
-        <v>203.4960065196699</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L26" t="n">
-        <v>252.4547904354456</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M26" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N26" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
-        <v>269.5422718944295</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P26" t="n">
-        <v>230.0480929810378</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q26" t="n">
-        <v>172.7565372408518</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R26" t="n">
-        <v>100.4911885030215</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S26" t="n">
-        <v>36.45462691600664</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T26" t="n">
-        <v>7.002967825554316</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H27" t="n">
-        <v>8.266668359918999</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I27" t="n">
-        <v>29.47018466183658</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J27" t="n">
-        <v>80.86843921027028</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K27" t="n">
-        <v>138.2170431458391</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L27" t="n">
         <v>169.0363433314465</v>
@@ -33044,19 +33046,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
-        <v>109.2611789042155</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R27" t="n">
-        <v>53.14394064623678</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S27" t="n">
-        <v>15.89888306278698</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T27" t="n">
-        <v>3.450076395443032</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H28" t="n">
-        <v>6.380108809696723</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I28" t="n">
-        <v>21.58016354036478</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J28" t="n">
-        <v>50.73425993150448</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K28" t="n">
-        <v>83.37197401628225</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L28" t="n">
-        <v>106.6874227748263</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M28" t="n">
-        <v>112.4869286355833</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N28" t="n">
-        <v>109.812240893277</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O28" t="n">
-        <v>101.4293780911704</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P28" t="n">
-        <v>86.7903554235226</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.08914340093709</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R28" t="n">
-        <v>32.2658672523108</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S28" t="n">
-        <v>12.50579610244234</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T28" t="n">
-        <v>3.066105460692696</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.599764209150043</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H29" t="n">
-        <v>16.38358520695788</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I29" t="n">
-        <v>61.67490967325708</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J29" t="n">
-        <v>135.7779875463486</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K29" t="n">
-        <v>203.4960065196699</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L29" t="n">
-        <v>252.4547904354456</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M29" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N29" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
-        <v>269.5422718944295</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P29" t="n">
-        <v>230.0480929810378</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q29" t="n">
-        <v>172.7565372408518</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R29" t="n">
-        <v>100.4911885030215</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S29" t="n">
-        <v>36.45462691600664</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T29" t="n">
-        <v>7.002967825554316</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H30" t="n">
-        <v>8.266668359918999</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I30" t="n">
-        <v>29.47018466183658</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J30" t="n">
-        <v>80.86843921027028</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K30" t="n">
-        <v>138.2170431458391</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L30" t="n">
         <v>169.0363433314465</v>
@@ -33281,19 +33283,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q30" t="n">
-        <v>109.2611789042155</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R30" t="n">
-        <v>53.14394064623678</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S30" t="n">
-        <v>15.89888306278698</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T30" t="n">
-        <v>3.450076395443032</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H31" t="n">
-        <v>6.380108809696723</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I31" t="n">
-        <v>21.58016354036478</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J31" t="n">
-        <v>50.73425993150448</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K31" t="n">
-        <v>83.37197401628225</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L31" t="n">
-        <v>106.6874227748263</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M31" t="n">
-        <v>112.4869286355833</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N31" t="n">
-        <v>109.812240893277</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O31" t="n">
-        <v>101.4293780911704</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P31" t="n">
-        <v>86.7903554235226</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.08914340093709</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R31" t="n">
-        <v>32.2658672523108</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S31" t="n">
-        <v>12.50579610244234</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T31" t="n">
-        <v>3.066105460692696</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.599764209150043</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H32" t="n">
-        <v>16.38358520695788</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I32" t="n">
-        <v>61.67490967325708</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J32" t="n">
-        <v>135.7779875463486</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K32" t="n">
-        <v>203.4960065196699</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L32" t="n">
-        <v>252.4547904354456</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M32" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N32" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
-        <v>269.5422718944295</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P32" t="n">
-        <v>230.0480929810378</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q32" t="n">
-        <v>172.7565372408518</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R32" t="n">
-        <v>100.4911885030215</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S32" t="n">
-        <v>36.45462691600664</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T32" t="n">
-        <v>7.002967825554316</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H33" t="n">
-        <v>8.266668359918999</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I33" t="n">
-        <v>29.47018466183658</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J33" t="n">
-        <v>80.86843921027028</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K33" t="n">
-        <v>138.2170431458391</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L33" t="n">
         <v>169.0363433314465</v>
@@ -33518,19 +33520,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q33" t="n">
-        <v>109.2611789042155</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R33" t="n">
-        <v>53.14394064623678</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S33" t="n">
-        <v>15.89888306278698</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T33" t="n">
-        <v>3.450076395443032</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H34" t="n">
-        <v>6.380108809696723</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I34" t="n">
-        <v>21.58016354036478</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J34" t="n">
-        <v>50.73425993150448</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K34" t="n">
-        <v>83.37197401628225</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L34" t="n">
-        <v>106.6874227748263</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M34" t="n">
-        <v>112.4869286355833</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N34" t="n">
-        <v>109.812240893277</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O34" t="n">
-        <v>101.4293780911704</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P34" t="n">
-        <v>86.7903554235226</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.08914340093709</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R34" t="n">
-        <v>32.2658672523108</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S34" t="n">
-        <v>12.50579610244234</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T34" t="n">
-        <v>3.066105460692696</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.599764209150043</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H35" t="n">
-        <v>16.38358520695788</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I35" t="n">
-        <v>61.67490967325708</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J35" t="n">
-        <v>135.7779875463486</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K35" t="n">
-        <v>203.4960065196699</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L35" t="n">
-        <v>252.4547904354456</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M35" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N35" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>269.5422718944295</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P35" t="n">
-        <v>230.0480929810378</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q35" t="n">
-        <v>172.7565372408518</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R35" t="n">
-        <v>100.4911885030215</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S35" t="n">
-        <v>36.45462691600664</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T35" t="n">
-        <v>7.002967825554316</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H36" t="n">
-        <v>8.266668359918999</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I36" t="n">
-        <v>29.47018466183658</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J36" t="n">
-        <v>80.86843921027028</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K36" t="n">
-        <v>138.2170431458391</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L36" t="n">
         <v>169.0363433314465</v>
@@ -33755,19 +33757,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q36" t="n">
-        <v>109.2611789042155</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R36" t="n">
-        <v>53.14394064623678</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S36" t="n">
-        <v>15.89888306278698</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T36" t="n">
-        <v>3.450076395443032</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H37" t="n">
-        <v>6.380108809696723</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I37" t="n">
-        <v>21.58016354036478</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J37" t="n">
-        <v>50.73425993150448</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K37" t="n">
-        <v>83.37197401628225</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L37" t="n">
-        <v>106.6874227748263</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M37" t="n">
-        <v>112.4869286355833</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N37" t="n">
-        <v>109.812240893277</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O37" t="n">
-        <v>101.4293780911704</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P37" t="n">
-        <v>86.7903554235226</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.08914340093709</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R37" t="n">
-        <v>32.2658672523108</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S37" t="n">
-        <v>12.50579610244234</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T37" t="n">
-        <v>3.066105460692696</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.599764209150043</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H38" t="n">
-        <v>16.38358520695788</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I38" t="n">
-        <v>61.67490967325708</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J38" t="n">
-        <v>135.7779875463486</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K38" t="n">
-        <v>203.4960065196699</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L38" t="n">
-        <v>252.4547904354456</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M38" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N38" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O38" t="n">
-        <v>269.5422718944295</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P38" t="n">
-        <v>230.0480929810378</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q38" t="n">
-        <v>172.7565372408518</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R38" t="n">
-        <v>100.4911885030215</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S38" t="n">
-        <v>36.45462691600664</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T38" t="n">
-        <v>7.002967825554316</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H39" t="n">
-        <v>8.266668359918999</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I39" t="n">
-        <v>29.47018466183658</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J39" t="n">
-        <v>80.86843921027028</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K39" t="n">
-        <v>138.2170431458391</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L39" t="n">
         <v>169.0363433314465</v>
@@ -33992,19 +33994,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q39" t="n">
-        <v>109.2611789042155</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R39" t="n">
-        <v>53.14394064623678</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S39" t="n">
-        <v>15.89888306278698</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T39" t="n">
-        <v>3.450076395443032</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H40" t="n">
-        <v>6.380108809696723</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I40" t="n">
-        <v>21.58016354036478</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J40" t="n">
-        <v>50.73425993150448</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K40" t="n">
-        <v>83.37197401628225</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L40" t="n">
-        <v>106.6874227748263</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M40" t="n">
-        <v>112.4869286355833</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N40" t="n">
-        <v>109.812240893277</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O40" t="n">
-        <v>101.4293780911704</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P40" t="n">
-        <v>86.7903554235226</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.08914340093709</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R40" t="n">
-        <v>32.2658672523108</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S40" t="n">
-        <v>12.50579610244234</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T40" t="n">
-        <v>3.066105460692696</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.599764209150043</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H41" t="n">
-        <v>16.38358520695788</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I41" t="n">
-        <v>61.67490967325708</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J41" t="n">
-        <v>135.7779875463486</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K41" t="n">
-        <v>203.4960065196699</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L41" t="n">
-        <v>252.4547904354456</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M41" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N41" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>269.5422718944295</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P41" t="n">
-        <v>230.0480929810378</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q41" t="n">
-        <v>172.7565372408518</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R41" t="n">
-        <v>100.4911885030215</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S41" t="n">
-        <v>36.45462691600664</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T41" t="n">
-        <v>7.002967825554316</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H42" t="n">
-        <v>8.266668359918999</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I42" t="n">
-        <v>29.47018466183658</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J42" t="n">
-        <v>80.86843921027028</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K42" t="n">
-        <v>138.2170431458391</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L42" t="n">
         <v>169.0363433314465</v>
@@ -34229,19 +34231,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
-        <v>109.2611789042155</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R42" t="n">
-        <v>53.14394064623678</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S42" t="n">
-        <v>15.89888306278698</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T42" t="n">
-        <v>3.450076395443032</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H43" t="n">
-        <v>6.380108809696723</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I43" t="n">
-        <v>21.58016354036478</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J43" t="n">
-        <v>50.73425993150448</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K43" t="n">
-        <v>83.37197401628225</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L43" t="n">
-        <v>106.6874227748263</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M43" t="n">
-        <v>112.4869286355833</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N43" t="n">
-        <v>109.812240893277</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O43" t="n">
-        <v>101.4293780911704</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P43" t="n">
-        <v>86.7903554235226</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.08914340093709</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R43" t="n">
-        <v>32.2658672523108</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S43" t="n">
-        <v>12.50579610244234</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T43" t="n">
-        <v>3.066105460692696</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.599764209150043</v>
+        <v>1.666104223186756</v>
       </c>
       <c r="H44" t="n">
-        <v>16.38358520695788</v>
+        <v>17.06298987571137</v>
       </c>
       <c r="I44" t="n">
-        <v>61.67490967325708</v>
+        <v>64.23248306440749</v>
       </c>
       <c r="J44" t="n">
-        <v>135.7779875463486</v>
+        <v>141.4085133126971</v>
       </c>
       <c r="K44" t="n">
-        <v>203.4960065196699</v>
+        <v>211.9347050801925</v>
       </c>
       <c r="L44" t="n">
-        <v>252.4547904354456</v>
+        <v>262.9237422005443</v>
       </c>
       <c r="M44" t="n">
-        <v>280.9045971899176</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N44" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>269.5422718944295</v>
+        <v>280.7198179344578</v>
       </c>
       <c r="P44" t="n">
-        <v>230.0480929810378</v>
+        <v>239.5878699245347</v>
       </c>
       <c r="Q44" t="n">
-        <v>172.7565372408518</v>
+        <v>179.920512431659</v>
       </c>
       <c r="R44" t="n">
-        <v>100.4911885030215</v>
+        <v>104.6584194097552</v>
       </c>
       <c r="S44" t="n">
-        <v>36.45462691600664</v>
+        <v>37.96634998586825</v>
       </c>
       <c r="T44" t="n">
-        <v>7.002967825554316</v>
+        <v>7.29337123700003</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1332883378549405</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8559493124711769</v>
+        <v>0.8914443492267639</v>
       </c>
       <c r="H45" t="n">
-        <v>8.266668359918999</v>
+        <v>8.6094756885848</v>
       </c>
       <c r="I45" t="n">
-        <v>29.47018466183658</v>
+        <v>30.692272550132</v>
       </c>
       <c r="J45" t="n">
-        <v>80.86843921027028</v>
+        <v>84.2219417837444</v>
       </c>
       <c r="K45" t="n">
-        <v>138.2170431458391</v>
+        <v>143.9487131819376</v>
       </c>
       <c r="L45" t="n">
         <v>169.0363433314465</v>
@@ -34466,19 +34468,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
-        <v>109.2611789042155</v>
+        <v>113.792089210069</v>
       </c>
       <c r="R45" t="n">
-        <v>53.14394064623678</v>
+        <v>55.34774652479857</v>
       </c>
       <c r="S45" t="n">
-        <v>15.89888306278698</v>
+        <v>16.55818780252343</v>
       </c>
       <c r="T45" t="n">
-        <v>3.450076395443032</v>
+        <v>3.59314630236577</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05864765455439238</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7175991503748865</v>
+        <v>0.7473569968352074</v>
       </c>
       <c r="H46" t="n">
-        <v>6.380108809696723</v>
+        <v>6.644683117316667</v>
       </c>
       <c r="I46" t="n">
-        <v>21.58016354036478</v>
+        <v>22.4750631411897</v>
       </c>
       <c r="J46" t="n">
-        <v>50.73425993150448</v>
+        <v>52.83813967624916</v>
       </c>
       <c r="K46" t="n">
-        <v>83.37197401628225</v>
+        <v>86.82929472321771</v>
       </c>
       <c r="L46" t="n">
-        <v>106.6874227748263</v>
+        <v>111.1116029658453</v>
       </c>
       <c r="M46" t="n">
-        <v>112.4869286355833</v>
+        <v>117.1516063311771</v>
       </c>
       <c r="N46" t="n">
-        <v>109.812240893277</v>
+        <v>114.3660029793369</v>
       </c>
       <c r="O46" t="n">
-        <v>101.4293780911704</v>
+        <v>105.6355144253983</v>
       </c>
       <c r="P46" t="n">
-        <v>86.7903554235226</v>
+        <v>90.38943168995996</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.08914340093709</v>
+        <v>62.5809572531736</v>
       </c>
       <c r="R46" t="n">
-        <v>32.2658672523108</v>
+        <v>33.60388823951759</v>
       </c>
       <c r="S46" t="n">
-        <v>12.50579610244234</v>
+        <v>13.02439420848266</v>
       </c>
       <c r="T46" t="n">
-        <v>3.066105460692696</v>
+        <v>3.19325262284134</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.04076492710010227</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_11_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_11_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83340.69021666322</v>
+        <v>-41968.25657997478</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6621790.939182002</v>
+        <v>6868284.188597088</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22439990.63770758</v>
+        <v>21633088.66785144</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4962935.916265002</v>
+        <v>5256305.716931714</v>
       </c>
     </row>
     <row r="11">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
     </row>
     <row r="42">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>24.18760776254094</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>84.33001724990207</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>144.4724267372632</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>191.2282737899678</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>191.2282737899678</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.37349289513551</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>121.5159023824966</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>147.7945512496774</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>207.9369607370385</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>38.37258439959135</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>98.51499388695248</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>158.6574033743136</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>218.197578318117</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>56.63135318824778</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>56.63135318824778</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>75.95896826494135</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>136.1013777523025</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>196.2437872396636</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.37349289513551</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>121.5159023824966</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>181.6583118698578</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.8007213572189</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>65.00240217320849</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>98.51499388695248</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>158.6574033743136</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>218.197578318117</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>56.63135318824778</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>56.63135318824778</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>75.95896826494135</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>136.1013777523025</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>196.2437872396636</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.37349289513551</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>87.65214176231626</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>147.7945512496774</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>207.9369607370385</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>17.93906793709468</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>78.08147742445581</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>138.2238869118169</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>198.3662963991781</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>218.197578318117</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>65.00240217320849</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>125.1448116605696</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>185.2872211479308</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.37349289513551</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>121.5159023824966</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>181.6583118698578</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>207.9369607370385</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>17.93906793709468</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>78.08147742445581</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>138.2238869118169</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>183.4594593485648</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>62.57240583028482</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>122.714815317646</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>182.8572248050071</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.37349289513551</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>87.65214176231626</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>147.7945512496774</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>207.9369607370385</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>17.93906793709468</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>38.37258439959135</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>98.51499388695248</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>158.6574033743136</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>218.197578318117</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>65.00240217320849</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>125.1448116605696</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>185.2872211479308</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.37349289513551</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>87.65214176231626</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>147.7945512496774</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>207.9369607370385</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>17.93906793709468</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>78.08147742445581</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>138.2238869118169</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>158.6574033743136</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>218.197578318117</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>65.00240217320849</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>125.1448116605696</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>185.2872211479308</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.37349289513551</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>121.5159023824966</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>181.6583118698578</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.8007213572189</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>65.00240217320849</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>125.1448116605696</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>158.6574033743136</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>218.197578318117</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>127.587080712296</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>62.57240583028482</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>122.714815317646</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>182.8572248050071</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.37349289513551</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>121.5159023824966</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>181.6583118698578</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>207.9369607370385</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>65.00240217320849</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>125.1448116605696</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>158.6574033743136</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>218.197578318117</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>120.2725462659196</v>
       </c>
     </row>
   </sheetData>
@@ -8218,25 +8218,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K5" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L5" t="n">
-        <v>85.78632439852493</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M5" t="n">
-        <v>56.42683163149823</v>
+        <v>50.75625738522407</v>
       </c>
       <c r="N5" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O5" t="n">
-        <v>65.20892354519972</v>
+        <v>59.7677186643362</v>
       </c>
       <c r="P5" t="n">
-        <v>98.17069248095632</v>
+        <v>93.52675000186332</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R5" t="n">
         <v>42.58424007769262</v>
@@ -8297,10 +8297,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>57.65595408036968</v>
+        <v>54.86578968612498</v>
       </c>
       <c r="L6" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P6" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q6" t="n">
-        <v>83.41864916277152</v>
+        <v>81.21301196989599</v>
       </c>
       <c r="R6" t="n">
         <v>29.49804203773589</v>
@@ -8379,16 +8379,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L7" t="n">
-        <v>79.25802099849831</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M7" t="n">
-        <v>79.55121249250526</v>
+        <v>77.2804576278842</v>
       </c>
       <c r="N7" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O7" t="n">
-        <v>87.8197306940173</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P7" t="n">
         <v>87.48425302749862</v>
@@ -8458,19 +8458,19 @@
         <v>94.6755543817487</v>
       </c>
       <c r="L8" t="n">
-        <v>71.97849854454964</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M8" t="n">
-        <v>41.06296488573625</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N8" t="n">
         <v>36.04170333287215</v>
       </c>
       <c r="O8" t="n">
-        <v>50.46651067918273</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P8" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q8" t="n">
         <v>123.6377068975464</v>
@@ -8534,7 +8534,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>50.09627633166346</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L9" t="n">
         <v>10.27628214666007</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q9" t="n">
         <v>77.442690741435</v>
@@ -8932,7 +8932,7 @@
         <v>64.9282684572851</v>
       </c>
       <c r="L14" t="n">
-        <v>35.07435992029684</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9096,13 +9096,13 @@
         <v>56.95535238070698</v>
       </c>
       <c r="N16" t="n">
-        <v>45.91806968008437</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O16" t="n">
         <v>67.44506079792963</v>
       </c>
       <c r="P16" t="n">
-        <v>81.20141088981929</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q16" t="n">
         <v>42.34223702878295</v>
@@ -9169,7 +9169,7 @@
         <v>64.9282684572851</v>
       </c>
       <c r="L17" t="n">
-        <v>35.07435992029684</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9333,13 +9333,13 @@
         <v>56.95535238070698</v>
       </c>
       <c r="N19" t="n">
-        <v>45.91806968008437</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O19" t="n">
         <v>67.44506079792963</v>
       </c>
       <c r="P19" t="n">
-        <v>81.20141088981929</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q19" t="n">
         <v>42.34223702878295</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>85.04107264134677</v>
+        <v>55.67700949608485</v>
       </c>
       <c r="K23" t="n">
-        <v>64.9282684572851</v>
+        <v>20.91914965065629</v>
       </c>
       <c r="L23" t="n">
-        <v>35.07435992029684</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.0645038884594</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>51.95968297934965</v>
+        <v>2.208270023428668</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.3839527992952</v>
+        <v>113.3170171556079</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>73.8395502629202</v>
+        <v>56.3505154175734</v>
       </c>
       <c r="K24" t="n">
-        <v>29.89154616318334</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>61.47076291397906</v>
+        <v>37.84136455090527</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9798,22 +9798,22 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K25" t="n">
-        <v>69.16996059133484</v>
+        <v>55.9587734688628</v>
       </c>
       <c r="L25" t="n">
-        <v>57.82713911783085</v>
+        <v>68.6054575603101</v>
       </c>
       <c r="M25" t="n">
-        <v>56.95535238070698</v>
+        <v>93.37824495391675</v>
       </c>
       <c r="N25" t="n">
-        <v>45.91806968008437</v>
+        <v>82.91940432021704</v>
       </c>
       <c r="O25" t="n">
-        <v>67.44506079792963</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P25" t="n">
-        <v>81.20141088981929</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q25" t="n">
         <v>42.34223702878295</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>85.04107264134677</v>
+        <v>107.9713130338631</v>
       </c>
       <c r="K26" t="n">
-        <v>64.9282684572851</v>
+        <v>20.91914965065629</v>
       </c>
       <c r="L26" t="n">
-        <v>35.07435992029684</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>11.0645038884594</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>51.95968297934965</v>
+        <v>2.208270023428668</v>
       </c>
       <c r="Q26" t="n">
-        <v>98.3839527992952</v>
+        <v>61.02271361782974</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>73.8395502629202</v>
+        <v>56.3505154175734</v>
       </c>
       <c r="K27" t="n">
-        <v>29.89154616318334</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>61.47076291397906</v>
+        <v>37.84136455090527</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10035,22 +10035,22 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
-        <v>69.16996059133484</v>
+        <v>55.9587734688628</v>
       </c>
       <c r="L28" t="n">
-        <v>57.82713911783085</v>
+        <v>95.50426339224663</v>
       </c>
       <c r="M28" t="n">
-        <v>56.95535238070698</v>
+        <v>66.47943912198023</v>
       </c>
       <c r="N28" t="n">
-        <v>45.91806968008437</v>
+        <v>82.91940432021704</v>
       </c>
       <c r="O28" t="n">
-        <v>67.44506079792963</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P28" t="n">
-        <v>81.20141088981929</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q28" t="n">
         <v>42.34223702878295</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>85.04107264134677</v>
+        <v>107.9713130338631</v>
       </c>
       <c r="K29" t="n">
-        <v>64.9282684572851</v>
+        <v>20.91914965065629</v>
       </c>
       <c r="L29" t="n">
-        <v>35.07435992029684</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>11.0645038884594</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>51.95968297934965</v>
+        <v>2.208270023428668</v>
       </c>
       <c r="Q29" t="n">
-        <v>98.3839527992952</v>
+        <v>61.02271361782974</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>73.8395502629202</v>
+        <v>56.3505154175734</v>
       </c>
       <c r="K30" t="n">
-        <v>29.89154616318334</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.47076291397906</v>
+        <v>37.84136455090527</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10275,19 +10275,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>57.82713911783085</v>
+        <v>95.50426339224663</v>
       </c>
       <c r="M31" t="n">
-        <v>56.95535238070698</v>
+        <v>93.37824495391675</v>
       </c>
       <c r="N31" t="n">
-        <v>45.91806968008437</v>
+        <v>82.91940432021704</v>
       </c>
       <c r="O31" t="n">
-        <v>67.44506079792963</v>
+        <v>65.54100685068327</v>
       </c>
       <c r="P31" t="n">
-        <v>81.20141088981929</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>85.04107264134677</v>
+        <v>55.67700949608485</v>
       </c>
       <c r="K32" t="n">
-        <v>64.9282684572851</v>
+        <v>20.91914965065629</v>
       </c>
       <c r="L32" t="n">
-        <v>35.07435992029684</v>
+        <v>41.22706506128037</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>11.0645038884594</v>
+        <v>11.06723847649783</v>
       </c>
       <c r="P32" t="n">
-        <v>51.95968297934965</v>
+        <v>2.208270023428668</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.3839527992952</v>
+        <v>61.02271361782974</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>73.8395502629202</v>
+        <v>56.3505154175734</v>
       </c>
       <c r="K33" t="n">
-        <v>29.89154616318334</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.47076291397906</v>
+        <v>37.84136455090527</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10512,19 +10512,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>57.82713911783085</v>
+        <v>95.50426339224663</v>
       </c>
       <c r="M34" t="n">
-        <v>56.95535238070698</v>
+        <v>93.37824495391675</v>
       </c>
       <c r="N34" t="n">
-        <v>45.91806968008437</v>
+        <v>67.86199315798146</v>
       </c>
       <c r="O34" t="n">
-        <v>67.44506079792963</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
-        <v>81.20141088981929</v>
+        <v>62.43167123532564</v>
       </c>
       <c r="Q34" t="n">
         <v>42.34223702878295</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>85.04107264134677</v>
+        <v>55.67700949608485</v>
       </c>
       <c r="K35" t="n">
-        <v>64.9282684572851</v>
+        <v>20.91914965065629</v>
       </c>
       <c r="L35" t="n">
-        <v>35.07435992029684</v>
+        <v>38.7725233007514</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>11.0645038884594</v>
+        <v>13.5217802370268</v>
       </c>
       <c r="P35" t="n">
-        <v>51.95968297934965</v>
+        <v>2.208270023428668</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.3839527992952</v>
+        <v>61.02271361782974</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>73.8395502629202</v>
+        <v>56.3505154175734</v>
       </c>
       <c r="K36" t="n">
-        <v>29.89154616318334</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>61.47076291397906</v>
+        <v>37.84136455090527</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10749,19 +10749,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>57.82713911783085</v>
+        <v>55.39427043783807</v>
       </c>
       <c r="M37" t="n">
-        <v>56.95535238070698</v>
+        <v>93.37824495391675</v>
       </c>
       <c r="N37" t="n">
-        <v>45.91806968008437</v>
+        <v>82.91940432021704</v>
       </c>
       <c r="O37" t="n">
-        <v>67.44506079792963</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P37" t="n">
-        <v>81.20141088981929</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
         <v>42.34223702878295</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>85.04107264134677</v>
+        <v>55.67700949608485</v>
       </c>
       <c r="K38" t="n">
-        <v>64.9282684572851</v>
+        <v>20.91914965065629</v>
       </c>
       <c r="L38" t="n">
-        <v>35.07435992029684</v>
+        <v>41.22706506128037</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>11.0645038884594</v>
+        <v>11.06723847649783</v>
       </c>
       <c r="P38" t="n">
-        <v>51.95968297934965</v>
+        <v>2.208270023428668</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.3839527992952</v>
+        <v>61.02271361782974</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>73.8395502629202</v>
+        <v>56.3505154175734</v>
       </c>
       <c r="K39" t="n">
-        <v>29.89154616318334</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.47076291397906</v>
+        <v>37.84136455090527</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10986,19 +10986,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>57.82713911783085</v>
+        <v>95.50426339224663</v>
       </c>
       <c r="M40" t="n">
-        <v>56.95535238070698</v>
+        <v>93.37824495391675</v>
       </c>
       <c r="N40" t="n">
-        <v>45.91806968008437</v>
+        <v>42.80941136580849</v>
       </c>
       <c r="O40" t="n">
-        <v>67.44506079792963</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
-        <v>81.20141088981929</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
         <v>42.34223702878295</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>85.04107264134677</v>
+        <v>55.67700949608485</v>
       </c>
       <c r="K41" t="n">
-        <v>64.9282684572851</v>
+        <v>20.91914965065629</v>
       </c>
       <c r="L41" t="n">
-        <v>35.07435992029684</v>
+        <v>41.22706506128037</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>11.0645038884594</v>
+        <v>11.06723847649783</v>
       </c>
       <c r="P41" t="n">
-        <v>51.95968297934965</v>
+        <v>2.208270023428668</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.3839527992952</v>
+        <v>61.02271361782974</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>73.8395502629202</v>
+        <v>56.3505154175734</v>
       </c>
       <c r="K42" t="n">
-        <v>29.89154616318334</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>61.47076291397906</v>
+        <v>37.84136455090527</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11220,22 +11220,22 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>69.16996059133484</v>
+        <v>55.9587734688628</v>
       </c>
       <c r="L43" t="n">
-        <v>57.82713911783085</v>
+        <v>95.50426339224663</v>
       </c>
       <c r="M43" t="n">
-        <v>56.95535238070698</v>
+        <v>93.37824495391675</v>
       </c>
       <c r="N43" t="n">
-        <v>45.91806968008437</v>
+        <v>56.02059848828053</v>
       </c>
       <c r="O43" t="n">
-        <v>67.44506079792963</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
-        <v>81.20141088981929</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q43" t="n">
         <v>42.34223702878295</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>79.46749020986019</v>
+        <v>55.67700949608485</v>
       </c>
       <c r="K44" t="n">
-        <v>56.57491319468375</v>
+        <v>20.91914965065629</v>
       </c>
       <c r="L44" t="n">
-        <v>24.71128406284015</v>
+        <v>38.7725233007514</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>13.5217802370268</v>
       </c>
       <c r="P44" t="n">
-        <v>42.51638489689412</v>
+        <v>2.208270023428668</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.29242921516939</v>
+        <v>61.02271361782974</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>70.51996274958896</v>
+        <v>56.3505154175734</v>
       </c>
       <c r="K45" t="n">
-        <v>24.21784236678039</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.98567517487724</v>
+        <v>37.84136455090527</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11457,22 +11457,22 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
-        <v>69.16996059133484</v>
+        <v>55.9587734688628</v>
       </c>
       <c r="L46" t="n">
-        <v>53.44770209726541</v>
+        <v>95.50426339224663</v>
       </c>
       <c r="M46" t="n">
-        <v>52.33785008490106</v>
+        <v>93.37824495391675</v>
       </c>
       <c r="N46" t="n">
-        <v>41.41036126824763</v>
+        <v>56.02059848828053</v>
       </c>
       <c r="O46" t="n">
-        <v>63.28146248584991</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
-        <v>77.63873325000012</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -22798,16 +22798,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I5" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J5" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S5" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T5" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U5" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22877,16 +22877,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H6" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I6" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J6" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S6" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T6" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U6" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22956,19 +22956,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H7" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I7" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J7" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K7" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q7" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R7" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S7" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23202,7 +23202,7 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J10" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K10" t="n">
         <v>17.00668871668184</v>
@@ -24211,7 +24211,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>284.2636401710478</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
@@ -24220,13 +24220,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.6444569673644</v>
+        <v>417.2984835286361</v>
       </c>
       <c r="H23" t="n">
-        <v>334.7962546718464</v>
+        <v>331.2530541924707</v>
       </c>
       <c r="I23" t="n">
-        <v>194.9890333072825</v>
+        <v>181.6508923107116</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>119.8967829935966</v>
+        <v>98.16402897308313</v>
       </c>
       <c r="S23" t="n">
-        <v>200.3151913159098</v>
+        <v>192.4313215808898</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2403896304627</v>
+        <v>154.9759823293378</v>
       </c>
       <c r="U23" t="n">
-        <v>250.055044213027</v>
+        <v>189.2774577648367</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>260.12987503606</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -24296,16 +24296,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>98.07353054683628</v>
       </c>
       <c r="G24" t="n">
-        <v>148.1059101097915</v>
+        <v>147.9207980005701</v>
       </c>
       <c r="H24" t="n">
-        <v>119.5670816411805</v>
+        <v>117.779288375805</v>
       </c>
       <c r="I24" t="n">
-        <v>85.37327541435067</v>
+        <v>78.99989796966508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>95.06472434781182</v>
+        <v>83.57153567176478</v>
       </c>
       <c r="S24" t="n">
-        <v>179.7273236222959</v>
+        <v>115.5390388099371</v>
       </c>
       <c r="T24" t="n">
-        <v>212.3965371086322</v>
+        <v>211.6504054052352</v>
       </c>
       <c r="U24" t="n">
-        <v>237.186050130781</v>
+        <v>183.6653522313633</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>205.9546750039195</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -24378,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0101232527563</v>
       </c>
       <c r="H25" t="n">
-        <v>161.0636723588838</v>
+        <v>159.6838764041262</v>
       </c>
       <c r="I25" t="n">
-        <v>148.7502285194483</v>
+        <v>144.0831886233971</v>
       </c>
       <c r="J25" t="n">
-        <v>82.38259262861192</v>
+        <v>71.41053420310101</v>
       </c>
       <c r="K25" t="n">
-        <v>4.819275353807939</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24408,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.37952103582114</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R25" t="n">
-        <v>179.3537369092726</v>
+        <v>111.6258418410569</v>
       </c>
       <c r="S25" t="n">
-        <v>226.1064386483733</v>
+        <v>223.4018692769313</v>
       </c>
       <c r="T25" t="n">
-        <v>221.4736843306728</v>
+        <v>220.8105922051758</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6273500649105</v>
+        <v>227.868976485961</v>
       </c>
       <c r="V25" t="n">
-        <v>245.1090151844499</v>
+        <v>191.6004957132704</v>
       </c>
       <c r="W25" t="n">
         <v>290.3107070893353</v>
@@ -24432,7 +24432,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>156.3913642410764</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>289.4555888080868</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>277.0222510691352</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>310.7290034885441</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.6444569673644</v>
+        <v>417.2984835286361</v>
       </c>
       <c r="H26" t="n">
-        <v>334.7962546718464</v>
+        <v>331.2530541924707</v>
       </c>
       <c r="I26" t="n">
-        <v>194.9890333072825</v>
+        <v>181.6508923107116</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>119.8967829935966</v>
+        <v>98.16402897308313</v>
       </c>
       <c r="S26" t="n">
-        <v>200.3151913159098</v>
+        <v>192.4313215808898</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2403896304627</v>
+        <v>215.7258909024298</v>
       </c>
       <c r="U26" t="n">
-        <v>250.055044213027</v>
+        <v>250.0273663379288</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>284.3879443545874</v>
       </c>
       <c r="X26" t="n">
         <v>359.7827142947061</v>
@@ -24530,19 +24530,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>118.3190523686202</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>98.07353054683628</v>
       </c>
       <c r="G27" t="n">
-        <v>148.1059101097915</v>
+        <v>147.9207980005701</v>
       </c>
       <c r="H27" t="n">
-        <v>119.5670816411805</v>
+        <v>117.779288375805</v>
       </c>
       <c r="I27" t="n">
-        <v>85.37327541435067</v>
+        <v>78.99989796966508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>95.06472434781182</v>
+        <v>22.82162709867272</v>
       </c>
       <c r="S27" t="n">
-        <v>179.7273236222959</v>
+        <v>115.5390388099371</v>
       </c>
       <c r="T27" t="n">
-        <v>212.3965371086322</v>
+        <v>211.6504054052352</v>
       </c>
       <c r="U27" t="n">
-        <v>237.186050130781</v>
+        <v>237.1738717025428</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24615,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.1653150268088</v>
+        <v>114.5016037815768</v>
       </c>
       <c r="H28" t="n">
-        <v>161.0636723588838</v>
+        <v>159.6838764041262</v>
       </c>
       <c r="I28" t="n">
-        <v>148.7502285194483</v>
+        <v>144.0831886233971</v>
       </c>
       <c r="J28" t="n">
-        <v>82.38259262861192</v>
+        <v>71.41053420310101</v>
       </c>
       <c r="K28" t="n">
-        <v>4.819275353807939</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.37952103582114</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R28" t="n">
-        <v>179.3537369092726</v>
+        <v>172.375750414149</v>
       </c>
       <c r="S28" t="n">
-        <v>226.1064386483733</v>
+        <v>223.4018692769313</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4736843306728</v>
+        <v>220.8105922051758</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6273500649105</v>
+        <v>227.868976485961</v>
       </c>
       <c r="V28" t="n">
-        <v>245.1090151844499</v>
+        <v>184.3591066113578</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>229.5607985162433</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24694,13 +24694,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.6444569673644</v>
+        <v>417.2984835286361</v>
       </c>
       <c r="H29" t="n">
-        <v>334.7962546718464</v>
+        <v>331.2530541924707</v>
       </c>
       <c r="I29" t="n">
-        <v>194.9890333072825</v>
+        <v>181.6508923107116</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>119.8967829935966</v>
+        <v>37.41412039999108</v>
       </c>
       <c r="S29" t="n">
-        <v>200.3151913159098</v>
+        <v>131.6814130077977</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2403896304627</v>
+        <v>154.9759823293378</v>
       </c>
       <c r="U29" t="n">
-        <v>250.055044213027</v>
+        <v>250.0273663379288</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>267.3712641379726</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
@@ -24770,16 +24770,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>98.07353054683628</v>
       </c>
       <c r="G30" t="n">
-        <v>148.1059101097915</v>
+        <v>94.41227852939059</v>
       </c>
       <c r="H30" t="n">
-        <v>119.5670816411805</v>
+        <v>117.779288375805</v>
       </c>
       <c r="I30" t="n">
-        <v>85.37327541435067</v>
+        <v>78.99989796966508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>95.06472434781182</v>
+        <v>22.82162709867272</v>
       </c>
       <c r="S30" t="n">
-        <v>179.7273236222959</v>
+        <v>115.5390388099371</v>
       </c>
       <c r="T30" t="n">
-        <v>212.3965371086322</v>
+        <v>211.6504054052352</v>
       </c>
       <c r="U30" t="n">
-        <v>237.186050130781</v>
+        <v>237.1738717025428</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24846,25 +24846,25 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>88.16762174104551</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>78.17697364535459</v>
       </c>
       <c r="G31" t="n">
-        <v>168.1653150268088</v>
+        <v>107.2602146796642</v>
       </c>
       <c r="H31" t="n">
-        <v>161.0636723588838</v>
+        <v>159.6838764041262</v>
       </c>
       <c r="I31" t="n">
-        <v>148.7502285194483</v>
+        <v>144.0831886233971</v>
       </c>
       <c r="J31" t="n">
-        <v>82.38259262861192</v>
+        <v>71.41053420310101</v>
       </c>
       <c r="K31" t="n">
-        <v>4.819275353807939</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.37952103582114</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R31" t="n">
-        <v>179.3537369092726</v>
+        <v>172.375750414149</v>
       </c>
       <c r="S31" t="n">
-        <v>226.1064386483733</v>
+        <v>223.4018692769313</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4736843306728</v>
+        <v>220.8105922051758</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6188850590531</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24906,7 +24906,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.1412728141684</v>
+        <v>156.3913642410764</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.6444569673644</v>
+        <v>363.7899640574566</v>
       </c>
       <c r="H32" t="n">
-        <v>334.7962546718464</v>
+        <v>331.2530541924707</v>
       </c>
       <c r="I32" t="n">
-        <v>194.9890333072825</v>
+        <v>181.6508923107116</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>119.8967829935966</v>
+        <v>37.41412039999108</v>
       </c>
       <c r="S32" t="n">
-        <v>200.3151913159098</v>
+        <v>192.4313215808898</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2403896304627</v>
+        <v>154.9759823293378</v>
       </c>
       <c r="U32" t="n">
-        <v>250.055044213027</v>
+        <v>250.0273663379288</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24985,7 +24985,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>321.5356588453578</v>
       </c>
     </row>
     <row r="33">
@@ -25010,13 +25010,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.1059101097915</v>
+        <v>94.41227852939059</v>
       </c>
       <c r="H33" t="n">
-        <v>119.5670816411805</v>
+        <v>57.02937980271295</v>
       </c>
       <c r="I33" t="n">
-        <v>85.37327541435067</v>
+        <v>78.99989796966508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>95.06472434781182</v>
+        <v>22.82162709867272</v>
       </c>
       <c r="S33" t="n">
-        <v>179.7273236222959</v>
+        <v>176.2889473830292</v>
       </c>
       <c r="T33" t="n">
-        <v>212.3965371086322</v>
+        <v>211.6504054052352</v>
       </c>
       <c r="U33" t="n">
-        <v>237.186050130781</v>
+        <v>237.1738717025428</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>205.9546750039195</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -25089,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.1653150268088</v>
+        <v>107.2602146796642</v>
       </c>
       <c r="H34" t="n">
-        <v>161.0636723588838</v>
+        <v>159.6838764041262</v>
       </c>
       <c r="I34" t="n">
-        <v>148.7502285194483</v>
+        <v>144.0831886233971</v>
       </c>
       <c r="J34" t="n">
-        <v>82.38259262861192</v>
+        <v>71.41053420310101</v>
       </c>
       <c r="K34" t="n">
-        <v>4.819275353807939</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.37952103582114</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R34" t="n">
-        <v>179.3537369092726</v>
+        <v>172.375750414149</v>
       </c>
       <c r="S34" t="n">
-        <v>226.1064386483733</v>
+        <v>223.4018692769313</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4736843306728</v>
+        <v>220.8105922051758</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6273500649105</v>
+        <v>227.868976485961</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25140,10 +25140,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
-        <v>221.9194554082425</v>
+        <v>168.410935937063</v>
       </c>
       <c r="Y34" t="n">
-        <v>217.1412728141684</v>
+        <v>156.3913642410764</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>313.3373318047413</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>296.6969779099994</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>277.0222510691352</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>310.7290034885441</v>
       </c>
       <c r="F35" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.6444569673644</v>
+        <v>417.2984835286361</v>
       </c>
       <c r="H35" t="n">
-        <v>334.7962546718464</v>
+        <v>331.2530541924707</v>
       </c>
       <c r="I35" t="n">
-        <v>194.9890333072825</v>
+        <v>181.6508923107116</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>119.8967829935966</v>
+        <v>98.16402897308313</v>
       </c>
       <c r="S35" t="n">
-        <v>200.3151913159098</v>
+        <v>192.4313215808898</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2403896304627</v>
+        <v>215.7258909024298</v>
       </c>
       <c r="U35" t="n">
-        <v>250.055044213027</v>
+        <v>250.0273663379288</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>123.2419749264863</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -25247,13 +25247,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.1059101097915</v>
+        <v>147.9207980005701</v>
       </c>
       <c r="H36" t="n">
-        <v>119.5670816411805</v>
+        <v>117.779288375805</v>
       </c>
       <c r="I36" t="n">
-        <v>85.37327541435067</v>
+        <v>78.99989796966508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>95.06472434781182</v>
+        <v>83.57153567176478</v>
       </c>
       <c r="S36" t="n">
-        <v>179.7273236222959</v>
+        <v>176.2889473830292</v>
       </c>
       <c r="T36" t="n">
-        <v>212.3965371086322</v>
+        <v>211.6504054052352</v>
       </c>
       <c r="U36" t="n">
-        <v>237.186050130781</v>
+        <v>176.4239631294507</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>205.9546750039195</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>156.5630058663785</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -25314,10 +25314,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4571809719723</v>
+        <v>105.7072723988803</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>91.67413077953123</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -25326,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0101232527563</v>
       </c>
       <c r="H37" t="n">
-        <v>161.0636723588838</v>
+        <v>159.6838764041262</v>
       </c>
       <c r="I37" t="n">
-        <v>148.7502285194483</v>
+        <v>144.0831886233971</v>
       </c>
       <c r="J37" t="n">
-        <v>82.38259262861192</v>
+        <v>71.41053420310101</v>
       </c>
       <c r="K37" t="n">
-        <v>4.819275353807939</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.37952103582114</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R37" t="n">
-        <v>179.3537369092726</v>
+        <v>172.375750414149</v>
       </c>
       <c r="S37" t="n">
-        <v>226.1064386483733</v>
+        <v>223.4018692769313</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4736843306728</v>
+        <v>220.8105922051758</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6188850590531</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>184.3591066113578</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>229.5607985162433</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25393,10 +25393,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>289.4555888080868</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>277.0222510691352</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
@@ -25405,13 +25405,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.6444569673644</v>
+        <v>417.2984835286361</v>
       </c>
       <c r="H38" t="n">
-        <v>334.7962546718464</v>
+        <v>331.2530541924707</v>
       </c>
       <c r="I38" t="n">
-        <v>194.9890333072825</v>
+        <v>181.6508923107116</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>119.8967829935966</v>
+        <v>98.16402897308313</v>
       </c>
       <c r="S38" t="n">
-        <v>200.3151913159098</v>
+        <v>192.4313215808898</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2403896304627</v>
+        <v>215.7258909024298</v>
       </c>
       <c r="U38" t="n">
-        <v>250.055044213027</v>
+        <v>250.0273663379288</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>267.3712641379726</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>277.1465552526748</v>
       </c>
       <c r="X38" t="n">
         <v>359.7827142947061</v>
@@ -25484,13 +25484,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.1059101097915</v>
+        <v>147.9207980005701</v>
       </c>
       <c r="H39" t="n">
-        <v>119.5670816411805</v>
+        <v>117.779288375805</v>
       </c>
       <c r="I39" t="n">
-        <v>85.37327541435067</v>
+        <v>78.99989796966508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>95.06472434781182</v>
+        <v>83.57153567176478</v>
       </c>
       <c r="S39" t="n">
-        <v>179.7273236222959</v>
+        <v>176.2889473830292</v>
       </c>
       <c r="T39" t="n">
-        <v>212.3965371086322</v>
+        <v>211.6504054052352</v>
       </c>
       <c r="U39" t="n">
-        <v>237.186050130781</v>
+        <v>176.4239631294507</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>179.8990123423102</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>205.9546750039195</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>163.8043949682911</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -25551,31 +25551,31 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>112.9486615007929</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>80.92623263913293</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>78.17697364535459</v>
       </c>
       <c r="G40" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0101232527563</v>
       </c>
       <c r="H40" t="n">
-        <v>161.0636723588838</v>
+        <v>159.6838764041262</v>
       </c>
       <c r="I40" t="n">
-        <v>148.7502285194483</v>
+        <v>144.0831886233971</v>
       </c>
       <c r="J40" t="n">
-        <v>82.38259262861192</v>
+        <v>71.41053420310101</v>
       </c>
       <c r="K40" t="n">
-        <v>4.819275353807939</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.37952103582114</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R40" t="n">
-        <v>179.3537369092726</v>
+        <v>172.375750414149</v>
       </c>
       <c r="S40" t="n">
-        <v>226.1064386483733</v>
+        <v>223.4018692769313</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4736843306728</v>
+        <v>220.8105922051758</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6188850590531</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>229.5607985162433</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -25633,7 +25633,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>277.0222510691352</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25642,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.6444569673644</v>
+        <v>356.548574955544</v>
       </c>
       <c r="H41" t="n">
-        <v>334.7962546718464</v>
+        <v>331.2530541924707</v>
       </c>
       <c r="I41" t="n">
-        <v>194.9890333072825</v>
+        <v>181.6508923107116</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>119.8967829935966</v>
+        <v>44.65550950190366</v>
       </c>
       <c r="S41" t="n">
-        <v>200.3151913159098</v>
+        <v>192.4313215808898</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2403896304627</v>
+        <v>215.7258909024298</v>
       </c>
       <c r="U41" t="n">
-        <v>250.055044213027</v>
+        <v>250.0273663379288</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25696,7 +25696,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>321.5356588453578</v>
       </c>
     </row>
     <row r="42">
@@ -25712,7 +25712,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>98.42240650348649</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -25721,13 +25721,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.1059101097915</v>
+        <v>94.41227852939059</v>
       </c>
       <c r="H42" t="n">
-        <v>119.5670816411805</v>
+        <v>57.02937980271295</v>
       </c>
       <c r="I42" t="n">
-        <v>85.37327541435067</v>
+        <v>78.99989796966508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>95.06472434781182</v>
+        <v>83.57153567176478</v>
       </c>
       <c r="S42" t="n">
-        <v>179.7273236222959</v>
+        <v>176.2889473830292</v>
       </c>
       <c r="T42" t="n">
-        <v>212.3965371086322</v>
+        <v>211.6504054052352</v>
       </c>
       <c r="U42" t="n">
-        <v>237.186050130781</v>
+        <v>176.4239631294507</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25797,22 +25797,22 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>78.17697364535459</v>
       </c>
       <c r="G43" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0101232527563</v>
       </c>
       <c r="H43" t="n">
-        <v>161.0636723588838</v>
+        <v>98.93396783103418</v>
       </c>
       <c r="I43" t="n">
-        <v>148.7502285194483</v>
+        <v>144.0831886233971</v>
       </c>
       <c r="J43" t="n">
-        <v>82.38259262861192</v>
+        <v>71.41053420310101</v>
       </c>
       <c r="K43" t="n">
-        <v>4.819275353807939</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.37952103582114</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R43" t="n">
-        <v>179.3537369092726</v>
+        <v>172.375750414149</v>
       </c>
       <c r="S43" t="n">
-        <v>226.1064386483733</v>
+        <v>223.4018692769313</v>
       </c>
       <c r="T43" t="n">
-        <v>221.4736843306728</v>
+        <v>220.8105922051758</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6273500649105</v>
+        <v>235.1103655878736</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>229.5607985162433</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>320.5787209066539</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>289.4555888080868</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>277.0222510691352</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
@@ -25879,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.5787878714249</v>
+        <v>417.2984835286361</v>
       </c>
       <c r="H44" t="n">
-        <v>334.1237210430571</v>
+        <v>331.2530541924707</v>
       </c>
       <c r="I44" t="n">
-        <v>192.4573254860788</v>
+        <v>181.6508923107116</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>115.7716966457934</v>
+        <v>98.16402897308313</v>
       </c>
       <c r="S44" t="n">
-        <v>198.8187567921908</v>
+        <v>192.4313215808898</v>
       </c>
       <c r="T44" t="n">
-        <v>216.952923162988</v>
+        <v>154.9759823293378</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0497906853519</v>
+        <v>250.0273663379288</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,13 +25958,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.0707740458651</v>
+        <v>87.17088942747802</v>
       </c>
       <c r="H45" t="n">
-        <v>119.227741234312</v>
+        <v>117.779288375805</v>
       </c>
       <c r="I45" t="n">
-        <v>84.16354689758496</v>
+        <v>78.99989796966508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>92.88320627350157</v>
+        <v>83.57153567176478</v>
       </c>
       <c r="S45" t="n">
-        <v>179.0746866454165</v>
+        <v>115.5390388099371</v>
       </c>
       <c r="T45" t="n">
-        <v>212.2549141141216</v>
+        <v>150.9004968321432</v>
       </c>
       <c r="U45" t="n">
-        <v>237.183738547628</v>
+        <v>237.1738717025428</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>187.1404014442228</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
@@ -26034,22 +26034,22 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>85.41836274726717</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1358581311098</v>
+        <v>107.2602146796642</v>
       </c>
       <c r="H46" t="n">
-        <v>160.8017737771232</v>
+        <v>159.6838764041262</v>
       </c>
       <c r="I46" t="n">
-        <v>147.8643793287897</v>
+        <v>144.0831886233971</v>
       </c>
       <c r="J46" t="n">
-        <v>80.29999010268935</v>
+        <v>71.41053420310101</v>
       </c>
       <c r="K46" t="n">
-        <v>1.396919653500589</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.91290770596737</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R46" t="n">
-        <v>178.0292477626592</v>
+        <v>172.375750414149</v>
       </c>
       <c r="S46" t="n">
-        <v>225.5930852933272</v>
+        <v>223.4018692769313</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3478230490496</v>
+        <v>220.8105922051758</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6257433251451</v>
+        <v>227.868976485961</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26091,7 +26091,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.1412728141684</v>
+        <v>156.3913642410764</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>429338.0523099171</v>
+        <v>429670.5803195752</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>429112.0762819989</v>
+        <v>429112.0762819988</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>429112.0762819989</v>
+        <v>429112.0762819988</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>429112.0762819989</v>
+        <v>484218.3903182587</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>429112.0762819989</v>
+        <v>484218.3903182588</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>429112.0762819989</v>
+        <v>484218.3903182585</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>429112.0762819989</v>
+        <v>484218.3903182585</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>429112.0762819989</v>
+        <v>484218.3903182587</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>429112.0762819989</v>
+        <v>484218.3903182585</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>429112.0762819989</v>
+        <v>484218.3903182587</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429406.2315008219</v>
+        <v>484218.3903182585</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>83928.79498487277</v>
       </c>
       <c r="C2" t="n">
-        <v>83928.79498487279</v>
+        <v>84203.37296691749</v>
       </c>
       <c r="D2" t="n">
         <v>84560.85108676576</v>
       </c>
       <c r="E2" t="n">
-        <v>85929.89841117935</v>
+        <v>85929.89841117933</v>
       </c>
       <c r="F2" t="n">
         <v>85929.89841117934</v>
       </c>
       <c r="G2" t="n">
-        <v>85929.89841117937</v>
+        <v>85929.89841117935</v>
       </c>
       <c r="H2" t="n">
-        <v>85929.89841117934</v>
+        <v>85929.89841117933</v>
       </c>
       <c r="I2" t="n">
-        <v>85929.89841117935</v>
+        <v>98043.77712974533</v>
       </c>
       <c r="J2" t="n">
-        <v>85929.89841117933</v>
+        <v>98043.77712974534</v>
       </c>
       <c r="K2" t="n">
-        <v>85929.89841117931</v>
+        <v>98043.77712974536</v>
       </c>
       <c r="L2" t="n">
-        <v>85929.89841117933</v>
+        <v>98043.77712974536</v>
       </c>
       <c r="M2" t="n">
-        <v>85929.89841117933</v>
+        <v>98043.77712974533</v>
       </c>
       <c r="N2" t="n">
-        <v>85929.89841117931</v>
+        <v>98043.77712974536</v>
       </c>
       <c r="O2" t="n">
-        <v>85929.89841117934</v>
+        <v>98043.77712974534</v>
       </c>
       <c r="P2" t="n">
-        <v>86287.26975901332</v>
+        <v>98043.77712974534</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>306594.2889031769</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7315.025760903076</v>
       </c>
       <c r="D3" t="n">
-        <v>18639.93994907058</v>
+        <v>11760.21590717521</v>
       </c>
       <c r="E3" t="n">
-        <v>46735.18559752367</v>
+        <v>46735.18559752362</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>80936.92749494176</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>10872.30883199167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>23682.20988303181</v>
       </c>
       <c r="C4" t="n">
-        <v>23682.20988303181</v>
+        <v>22687.61097947385</v>
       </c>
       <c r="D4" t="n">
         <v>20884.87908985157</v>
@@ -26438,28 +26438,28 @@
         <v>13784.23396129879</v>
       </c>
       <c r="I4" t="n">
-        <v>13784.23396129879</v>
+        <v>10392.81356642043</v>
       </c>
       <c r="J4" t="n">
-        <v>13784.23396129879</v>
+        <v>10392.81356642043</v>
       </c>
       <c r="K4" t="n">
-        <v>13784.23396129879</v>
+        <v>10392.81356642043</v>
       </c>
       <c r="L4" t="n">
-        <v>13784.23396129879</v>
+        <v>10392.81356642043</v>
       </c>
       <c r="M4" t="n">
-        <v>13784.23396129879</v>
+        <v>10392.81356642043</v>
       </c>
       <c r="N4" t="n">
-        <v>13784.23396129879</v>
+        <v>10392.81356642043</v>
       </c>
       <c r="O4" t="n">
-        <v>13784.23396129879</v>
+        <v>10392.81356642043</v>
       </c>
       <c r="P4" t="n">
-        <v>12351.0943322575</v>
+        <v>10392.81356642043</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>40563.74085539449</v>
       </c>
       <c r="C5" t="n">
-        <v>40563.74085539449</v>
+        <v>40738.86408331151</v>
       </c>
       <c r="D5" t="n">
         <v>41038.22012697312</v>
@@ -26490,28 +26490,28 @@
         <v>8678.759586280614</v>
       </c>
       <c r="I5" t="n">
-        <v>8678.759586280614</v>
+        <v>14248.48149238823</v>
       </c>
       <c r="J5" t="n">
-        <v>8678.759586280614</v>
+        <v>14248.48149238823</v>
       </c>
       <c r="K5" t="n">
-        <v>8678.759586280614</v>
+        <v>14248.48149238823</v>
       </c>
       <c r="L5" t="n">
-        <v>8678.759586280614</v>
+        <v>14248.48149238823</v>
       </c>
       <c r="M5" t="n">
-        <v>8678.759586280614</v>
+        <v>14248.48149238823</v>
       </c>
       <c r="N5" t="n">
-        <v>8678.759586280614</v>
+        <v>14248.48149238823</v>
       </c>
       <c r="O5" t="n">
-        <v>8678.759586280614</v>
+        <v>14248.48149238823</v>
       </c>
       <c r="P5" t="n">
-        <v>9034.86667628599</v>
+        <v>14248.48149238823</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-286911.4446567304</v>
+        <v>-302010.3421294544</v>
       </c>
       <c r="C6" t="n">
-        <v>19682.84424644648</v>
+        <v>-1614.143830991208</v>
       </c>
       <c r="D6" t="n">
-        <v>3997.811920870503</v>
+        <v>-4168.690168133729</v>
       </c>
       <c r="E6" t="n">
-        <v>16731.7192660763</v>
+        <v>1799.580412211186</v>
       </c>
       <c r="F6" t="n">
-        <v>63466.90486359994</v>
+        <v>48534.76600973483</v>
       </c>
       <c r="G6" t="n">
-        <v>63466.90486359997</v>
+        <v>48534.76600973484</v>
       </c>
       <c r="H6" t="n">
-        <v>63466.90486359994</v>
+        <v>48534.76600973481</v>
       </c>
       <c r="I6" t="n">
-        <v>63466.90486359996</v>
+        <v>-21457.09438465638</v>
       </c>
       <c r="J6" t="n">
-        <v>63466.90486359993</v>
+        <v>59479.83311028539</v>
       </c>
       <c r="K6" t="n">
-        <v>63466.90486359991</v>
+        <v>59479.83311028541</v>
       </c>
       <c r="L6" t="n">
-        <v>63466.90486359993</v>
+        <v>59479.83311028541</v>
       </c>
       <c r="M6" t="n">
-        <v>63466.90486359993</v>
+        <v>59479.83311028538</v>
       </c>
       <c r="N6" t="n">
-        <v>63466.90486359991</v>
+        <v>59479.83311028541</v>
       </c>
       <c r="O6" t="n">
-        <v>63466.90486359994</v>
+        <v>59479.83311028539</v>
       </c>
       <c r="P6" t="n">
-        <v>54028.99991847816</v>
+        <v>59479.83311028539</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>318.1715988713071</v>
       </c>
       <c r="C3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="D3" t="n">
         <v>339.9367030721617</v>
@@ -26758,28 +26758,28 @@
         <v>398.1082379027804</v>
       </c>
       <c r="I3" t="n">
-        <v>398.1082379027804</v>
+        <v>484.169130786433</v>
       </c>
       <c r="J3" t="n">
-        <v>398.1082379027804</v>
+        <v>484.169130786433</v>
       </c>
       <c r="K3" t="n">
-        <v>398.1082379027804</v>
+        <v>484.169130786433</v>
       </c>
       <c r="L3" t="n">
-        <v>398.1082379027804</v>
+        <v>484.169130786433</v>
       </c>
       <c r="M3" t="n">
-        <v>398.1082379027804</v>
+        <v>484.169130786433</v>
       </c>
       <c r="N3" t="n">
-        <v>398.1082379027804</v>
+        <v>484.169130786433</v>
       </c>
       <c r="O3" t="n">
-        <v>398.1082379027804</v>
+        <v>484.169130786433</v>
       </c>
       <c r="P3" t="n">
-        <v>414.443425517706</v>
+        <v>484.169130786433</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>318.1715988713071</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.033175592523492</v>
       </c>
       <c r="D3" t="n">
-        <v>21.76510420085447</v>
+        <v>13.73192860833103</v>
       </c>
       <c r="E3" t="n">
-        <v>58.17153483061884</v>
+        <v>58.17153483061878</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.06089288365251</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>16.33518761492553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H5" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I5" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J5" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K5" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L5" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M5" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N5" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O5" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P5" t="n">
-        <v>183.9335623404725</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q5" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R5" t="n">
-        <v>80.34712240241105</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S5" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T5" t="n">
-        <v>5.599180599232749</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6843690994590379</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H6" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I6" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J6" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K6" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L6" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M6" t="n">
         <v>173.4035213848624</v>
@@ -31381,25 +31381,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O6" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P6" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R6" t="n">
-        <v>42.4909165436059</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S6" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T6" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5737520635384226</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H7" t="n">
-        <v>5.101177437641615</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I7" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J7" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K7" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L7" t="n">
-        <v>85.3012840646124</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M7" t="n">
-        <v>89.9382439235729</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N7" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O7" t="n">
-        <v>81.09724621723089</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P7" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R7" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S7" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T7" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103255</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31542,7 +31542,7 @@
         <v>230.2533072552751</v>
       </c>
       <c r="P8" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q8" t="n">
         <v>147.575234749282</v>
@@ -31554,7 +31554,7 @@
         <v>31.1409351608317</v>
       </c>
       <c r="T8" t="n">
-        <v>5.982202684214622</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U8" t="n">
         <v>0.1093263768674288</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H9" t="n">
         <v>7.061703963819812</v>
@@ -31621,7 +31621,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q9" t="n">
         <v>93.33507364351127</v>
@@ -31706,13 +31706,13 @@
         <v>51.33044216389641</v>
       </c>
       <c r="R10" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S10" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T10" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U10" t="n">
         <v>0.03343639702349135</v>
@@ -32004,7 +32004,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L14" t="n">
-        <v>252.5606663430876</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M14" t="n">
         <v>281.0224045372727</v>
@@ -32025,7 +32025,7 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S14" t="n">
-        <v>36.4699154621492</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T14" t="n">
         <v>7.00590476952531</v>
@@ -32104,7 +32104,7 @@
         <v>53.16622845048833</v>
       </c>
       <c r="S15" t="n">
-        <v>15.9055508256441</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T15" t="n">
         <v>3.451523307855237</v>
@@ -32150,13 +32150,13 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H16" t="n">
-        <v>6.382784535556057</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I16" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J16" t="n">
-        <v>50.75553715032661</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K16" t="n">
         <v>83.40693902291036</v>
@@ -32174,7 +32174,7 @@
         <v>101.4719161133186</v>
       </c>
       <c r="P16" t="n">
-        <v>86.82675405014079</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q16" t="n">
         <v>60.11434392331984</v>
@@ -32241,7 +32241,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L17" t="n">
-        <v>252.5606663430876</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M17" t="n">
         <v>281.0224045372727</v>
@@ -32262,7 +32262,7 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S17" t="n">
-        <v>36.4699154621492</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T17" t="n">
         <v>7.00590476952531</v>
@@ -32341,7 +32341,7 @@
         <v>53.16622845048833</v>
       </c>
       <c r="S18" t="n">
-        <v>15.9055508256441</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T18" t="n">
         <v>3.451523307855237</v>
@@ -32387,13 +32387,13 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H19" t="n">
-        <v>6.382784535556057</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I19" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J19" t="n">
-        <v>50.75553715032661</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K19" t="n">
         <v>83.40693902291036</v>
@@ -32411,7 +32411,7 @@
         <v>101.4719161133186</v>
       </c>
       <c r="P19" t="n">
-        <v>86.82675405014079</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q19" t="n">
         <v>60.11434392331984</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.600435127247357</v>
+        <v>1.946408565975608</v>
       </c>
       <c r="H23" t="n">
-        <v>16.390456246922</v>
+        <v>19.93365672629771</v>
       </c>
       <c r="I23" t="n">
-        <v>61.70077524320381</v>
+        <v>75.03891623977472</v>
       </c>
       <c r="J23" t="n">
-        <v>135.8349308812105</v>
+        <v>165.1989940264724</v>
       </c>
       <c r="K23" t="n">
-        <v>203.5813498175912</v>
+        <v>247.59046862422</v>
       </c>
       <c r="L23" t="n">
-        <v>252.5606663430876</v>
+        <v>307.1578697751961</v>
       </c>
       <c r="M23" t="n">
-        <v>281.0224045372727</v>
+        <v>341.7723131103648</v>
       </c>
       <c r="N23" t="n">
-        <v>279.8839375878409</v>
+        <v>340.633846160933</v>
       </c>
       <c r="O23" t="n">
-        <v>269.6553140459984</v>
+        <v>327.9479462705231</v>
       </c>
       <c r="P23" t="n">
-        <v>230.1445718420792</v>
+        <v>279.8959847980002</v>
       </c>
       <c r="Q23" t="n">
-        <v>172.8289888475332</v>
+        <v>210.1902280289986</v>
       </c>
       <c r="R23" t="n">
-        <v>100.5333330619519</v>
+        <v>122.2660870824654</v>
       </c>
       <c r="S23" t="n">
-        <v>36.4699154621492</v>
+        <v>44.35378519716922</v>
       </c>
       <c r="T23" t="n">
-        <v>7.00590476952531</v>
+        <v>8.520403497558231</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1557126852780486</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8563082853003202</v>
+        <v>1.041420394521761</v>
       </c>
       <c r="H24" t="n">
-        <v>8.270135281716252</v>
+        <v>10.05792854709175</v>
       </c>
       <c r="I24" t="n">
-        <v>29.48254403336629</v>
+        <v>35.85592147805188</v>
       </c>
       <c r="J24" t="n">
-        <v>80.90235427041316</v>
+        <v>98.39138911575995</v>
       </c>
       <c r="K24" t="n">
-        <v>138.2750093855346</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L24" t="n">
-        <v>169.0363433314465</v>
+        <v>226.1206869771921</v>
       </c>
       <c r="M24" t="n">
-        <v>173.4035213848624</v>
+        <v>234.1534299579544</v>
       </c>
       <c r="N24" t="n">
-        <v>160.2368887416667</v>
+        <v>186.7809785064957</v>
       </c>
       <c r="O24" t="n">
-        <v>173.9674182222222</v>
+        <v>234.7173267953142</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4487770454829</v>
+        <v>198.8656190205634</v>
       </c>
       <c r="Q24" t="n">
-        <v>109.3070014709672</v>
+        <v>132.936399834041</v>
       </c>
       <c r="R24" t="n">
-        <v>53.16622845048833</v>
+        <v>64.65941712653536</v>
       </c>
       <c r="S24" t="n">
-        <v>15.9055508256441</v>
+        <v>19.34392706491078</v>
       </c>
       <c r="T24" t="n">
-        <v>3.451523307855237</v>
+        <v>4.197655011252186</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.0685144996395896</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.8730918751886495</v>
       </c>
       <c r="H25" t="n">
-        <v>6.382784535556057</v>
+        <v>7.762580490313635</v>
       </c>
       <c r="I25" t="n">
-        <v>21.58921395053111</v>
+        <v>26.2562538465823</v>
       </c>
       <c r="J25" t="n">
-        <v>50.75553715032661</v>
+        <v>61.72759557583752</v>
       </c>
       <c r="K25" t="n">
-        <v>83.40693902291036</v>
+        <v>101.4374014991903</v>
       </c>
       <c r="L25" t="n">
-        <v>106.7321659452799</v>
+        <v>129.8049502439561</v>
       </c>
       <c r="M25" t="n">
-        <v>112.5341040353712</v>
+        <v>136.8611200352535</v>
       </c>
       <c r="N25" t="n">
-        <v>109.8582945675001</v>
+        <v>133.6068685004595</v>
       </c>
       <c r="O25" t="n">
-        <v>101.4719161133186</v>
+        <v>123.407567958483</v>
       </c>
       <c r="P25" t="n">
-        <v>86.82675405014079</v>
+        <v>105.5964937046344</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.11434392331984</v>
+        <v>73.10953874875138</v>
       </c>
       <c r="R25" t="n">
-        <v>32.27939909290412</v>
+        <v>39.25738558802782</v>
       </c>
       <c r="S25" t="n">
-        <v>12.51104085343655</v>
+        <v>15.21561022487855</v>
       </c>
       <c r="T25" t="n">
-        <v>3.067391341218143</v>
+        <v>3.730483466715138</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.04762319319210821</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.600435127247357</v>
+        <v>1.946408565975608</v>
       </c>
       <c r="H26" t="n">
-        <v>16.390456246922</v>
+        <v>19.93365672629771</v>
       </c>
       <c r="I26" t="n">
-        <v>61.70077524320381</v>
+        <v>75.03891623977472</v>
       </c>
       <c r="J26" t="n">
-        <v>135.8349308812105</v>
+        <v>165.1989940264724</v>
       </c>
       <c r="K26" t="n">
-        <v>203.5813498175912</v>
+        <v>247.59046862422</v>
       </c>
       <c r="L26" t="n">
-        <v>252.5606663430876</v>
+        <v>307.1578697751961</v>
       </c>
       <c r="M26" t="n">
-        <v>281.0224045372727</v>
+        <v>341.7723131103648</v>
       </c>
       <c r="N26" t="n">
-        <v>279.8839375878409</v>
+        <v>340.633846160933</v>
       </c>
       <c r="O26" t="n">
-        <v>269.6553140459984</v>
+        <v>327.9479462705231</v>
       </c>
       <c r="P26" t="n">
-        <v>230.1445718420792</v>
+        <v>279.8959847980002</v>
       </c>
       <c r="Q26" t="n">
-        <v>172.8289888475332</v>
+        <v>210.1902280289986</v>
       </c>
       <c r="R26" t="n">
-        <v>100.5333330619519</v>
+        <v>122.2660870824654</v>
       </c>
       <c r="S26" t="n">
-        <v>36.4699154621492</v>
+        <v>44.35378519716922</v>
       </c>
       <c r="T26" t="n">
-        <v>7.00590476952531</v>
+        <v>8.520403497558231</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1557126852780486</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8563082853003202</v>
+        <v>1.041420394521761</v>
       </c>
       <c r="H27" t="n">
-        <v>8.270135281716252</v>
+        <v>10.05792854709175</v>
       </c>
       <c r="I27" t="n">
-        <v>29.48254403336629</v>
+        <v>35.85592147805188</v>
       </c>
       <c r="J27" t="n">
-        <v>80.90235427041316</v>
+        <v>98.39138911575995</v>
       </c>
       <c r="K27" t="n">
-        <v>138.2750093855346</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L27" t="n">
-        <v>169.0363433314465</v>
+        <v>226.1206869771921</v>
       </c>
       <c r="M27" t="n">
-        <v>173.4035213848624</v>
+        <v>234.1534299579544</v>
       </c>
       <c r="N27" t="n">
-        <v>160.2368887416667</v>
+        <v>220.9867973147587</v>
       </c>
       <c r="O27" t="n">
-        <v>173.9674182222222</v>
+        <v>234.7173267953142</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4487770454829</v>
+        <v>164.6598002123004</v>
       </c>
       <c r="Q27" t="n">
-        <v>109.3070014709672</v>
+        <v>132.936399834041</v>
       </c>
       <c r="R27" t="n">
-        <v>53.16622845048833</v>
+        <v>64.65941712653536</v>
       </c>
       <c r="S27" t="n">
-        <v>15.9055508256441</v>
+        <v>19.34392706491078</v>
       </c>
       <c r="T27" t="n">
-        <v>3.451523307855237</v>
+        <v>4.197655011252186</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.0685144996395896</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.8730918751886495</v>
       </c>
       <c r="H28" t="n">
-        <v>6.382784535556057</v>
+        <v>7.762580490313635</v>
       </c>
       <c r="I28" t="n">
-        <v>21.58921395053111</v>
+        <v>26.2562538465823</v>
       </c>
       <c r="J28" t="n">
-        <v>50.75553715032661</v>
+        <v>61.72759557583752</v>
       </c>
       <c r="K28" t="n">
-        <v>83.40693902291036</v>
+        <v>101.4374014991903</v>
       </c>
       <c r="L28" t="n">
-        <v>106.7321659452799</v>
+        <v>129.8049502439561</v>
       </c>
       <c r="M28" t="n">
-        <v>112.5341040353712</v>
+        <v>136.8611200352535</v>
       </c>
       <c r="N28" t="n">
-        <v>109.8582945675001</v>
+        <v>133.6068685004595</v>
       </c>
       <c r="O28" t="n">
-        <v>101.4719161133186</v>
+        <v>123.407567958483</v>
       </c>
       <c r="P28" t="n">
-        <v>86.82675405014079</v>
+        <v>105.5964937046344</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.11434392331984</v>
+        <v>73.10953874875138</v>
       </c>
       <c r="R28" t="n">
-        <v>32.27939909290412</v>
+        <v>39.25738558802782</v>
       </c>
       <c r="S28" t="n">
-        <v>12.51104085343655</v>
+        <v>15.21561022487855</v>
       </c>
       <c r="T28" t="n">
-        <v>3.067391341218143</v>
+        <v>3.730483466715138</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.04762319319210821</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.600435127247357</v>
+        <v>1.946408565975608</v>
       </c>
       <c r="H29" t="n">
-        <v>16.390456246922</v>
+        <v>19.93365672629771</v>
       </c>
       <c r="I29" t="n">
-        <v>61.70077524320381</v>
+        <v>75.03891623977472</v>
       </c>
       <c r="J29" t="n">
-        <v>135.8349308812105</v>
+        <v>165.1989940264724</v>
       </c>
       <c r="K29" t="n">
-        <v>203.5813498175912</v>
+        <v>247.59046862422</v>
       </c>
       <c r="L29" t="n">
-        <v>252.5606663430876</v>
+        <v>307.1578697751961</v>
       </c>
       <c r="M29" t="n">
-        <v>281.0224045372727</v>
+        <v>341.7723131103648</v>
       </c>
       <c r="N29" t="n">
-        <v>279.8839375878409</v>
+        <v>340.633846160933</v>
       </c>
       <c r="O29" t="n">
-        <v>269.6553140459984</v>
+        <v>327.9479462705231</v>
       </c>
       <c r="P29" t="n">
-        <v>230.1445718420792</v>
+        <v>279.8959847980002</v>
       </c>
       <c r="Q29" t="n">
-        <v>172.8289888475332</v>
+        <v>210.1902280289986</v>
       </c>
       <c r="R29" t="n">
-        <v>100.5333330619519</v>
+        <v>122.2660870824654</v>
       </c>
       <c r="S29" t="n">
-        <v>36.4699154621492</v>
+        <v>44.35378519716922</v>
       </c>
       <c r="T29" t="n">
-        <v>7.00590476952531</v>
+        <v>8.520403497558231</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1557126852780486</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8563082853003202</v>
+        <v>1.041420394521761</v>
       </c>
       <c r="H30" t="n">
-        <v>8.270135281716252</v>
+        <v>10.05792854709175</v>
       </c>
       <c r="I30" t="n">
-        <v>29.48254403336629</v>
+        <v>35.85592147805188</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90235427041316</v>
+        <v>98.39138911575995</v>
       </c>
       <c r="K30" t="n">
-        <v>138.2750093855346</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L30" t="n">
-        <v>169.0363433314465</v>
+        <v>226.1206869771921</v>
       </c>
       <c r="M30" t="n">
-        <v>173.4035213848624</v>
+        <v>199.9476111496914</v>
       </c>
       <c r="N30" t="n">
-        <v>160.2368887416667</v>
+        <v>220.9867973147587</v>
       </c>
       <c r="O30" t="n">
-        <v>173.9674182222222</v>
+        <v>234.7173267953142</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4487770454829</v>
+        <v>198.8656190205634</v>
       </c>
       <c r="Q30" t="n">
-        <v>109.3070014709672</v>
+        <v>132.936399834041</v>
       </c>
       <c r="R30" t="n">
-        <v>53.16622845048833</v>
+        <v>64.65941712653536</v>
       </c>
       <c r="S30" t="n">
-        <v>15.9055508256441</v>
+        <v>19.34392706491078</v>
       </c>
       <c r="T30" t="n">
-        <v>3.451523307855237</v>
+        <v>4.197655011252186</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.0685144996395896</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.8730918751886495</v>
       </c>
       <c r="H31" t="n">
-        <v>6.382784535556057</v>
+        <v>7.762580490313635</v>
       </c>
       <c r="I31" t="n">
-        <v>21.58921395053111</v>
+        <v>26.2562538465823</v>
       </c>
       <c r="J31" t="n">
-        <v>50.75553715032661</v>
+        <v>61.72759557583752</v>
       </c>
       <c r="K31" t="n">
-        <v>83.40693902291036</v>
+        <v>101.4374014991903</v>
       </c>
       <c r="L31" t="n">
-        <v>106.7321659452799</v>
+        <v>129.8049502439561</v>
       </c>
       <c r="M31" t="n">
-        <v>112.5341040353712</v>
+        <v>136.8611200352535</v>
       </c>
       <c r="N31" t="n">
-        <v>109.8582945675001</v>
+        <v>133.6068685004595</v>
       </c>
       <c r="O31" t="n">
-        <v>101.4719161133186</v>
+        <v>123.407567958483</v>
       </c>
       <c r="P31" t="n">
-        <v>86.82675405014079</v>
+        <v>105.5964937046344</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.11434392331984</v>
+        <v>73.10953874875138</v>
       </c>
       <c r="R31" t="n">
-        <v>32.27939909290412</v>
+        <v>39.25738558802782</v>
       </c>
       <c r="S31" t="n">
-        <v>12.51104085343655</v>
+        <v>15.21561022487855</v>
       </c>
       <c r="T31" t="n">
-        <v>3.067391341218143</v>
+        <v>3.730483466715138</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.04762319319210821</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.600435127247357</v>
+        <v>1.946408565975608</v>
       </c>
       <c r="H32" t="n">
-        <v>16.390456246922</v>
+        <v>19.93365672629771</v>
       </c>
       <c r="I32" t="n">
-        <v>61.70077524320381</v>
+        <v>75.03891623977472</v>
       </c>
       <c r="J32" t="n">
-        <v>135.8349308812105</v>
+        <v>165.1989940264724</v>
       </c>
       <c r="K32" t="n">
-        <v>203.5813498175912</v>
+        <v>247.59046862422</v>
       </c>
       <c r="L32" t="n">
-        <v>252.5606663430876</v>
+        <v>307.1578697751961</v>
       </c>
       <c r="M32" t="n">
-        <v>281.0224045372727</v>
+        <v>341.7723131103648</v>
       </c>
       <c r="N32" t="n">
-        <v>279.8839375878409</v>
+        <v>340.633846160933</v>
       </c>
       <c r="O32" t="n">
-        <v>269.6553140459984</v>
+        <v>327.9479462705231</v>
       </c>
       <c r="P32" t="n">
-        <v>230.1445718420792</v>
+        <v>279.8959847980002</v>
       </c>
       <c r="Q32" t="n">
-        <v>172.8289888475332</v>
+        <v>210.1902280289986</v>
       </c>
       <c r="R32" t="n">
-        <v>100.5333330619519</v>
+        <v>122.2660870824654</v>
       </c>
       <c r="S32" t="n">
-        <v>36.4699154621492</v>
+        <v>44.35378519716922</v>
       </c>
       <c r="T32" t="n">
-        <v>7.00590476952531</v>
+        <v>8.520403497558231</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1557126852780486</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8563082853003202</v>
+        <v>1.041420394521761</v>
       </c>
       <c r="H33" t="n">
-        <v>8.270135281716252</v>
+        <v>10.05792854709175</v>
       </c>
       <c r="I33" t="n">
-        <v>29.48254403336629</v>
+        <v>35.85592147805188</v>
       </c>
       <c r="J33" t="n">
-        <v>80.90235427041316</v>
+        <v>98.39138911575995</v>
       </c>
       <c r="K33" t="n">
-        <v>138.2750093855346</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L33" t="n">
-        <v>169.0363433314465</v>
+        <v>226.1206869771921</v>
       </c>
       <c r="M33" t="n">
-        <v>173.4035213848624</v>
+        <v>234.1534299579544</v>
       </c>
       <c r="N33" t="n">
-        <v>160.2368887416667</v>
+        <v>220.9867973147587</v>
       </c>
       <c r="O33" t="n">
-        <v>173.9674182222222</v>
+        <v>200.5115079870512</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4487770454829</v>
+        <v>198.8656190205634</v>
       </c>
       <c r="Q33" t="n">
-        <v>109.3070014709672</v>
+        <v>132.936399834041</v>
       </c>
       <c r="R33" t="n">
-        <v>53.16622845048833</v>
+        <v>64.65941712653536</v>
       </c>
       <c r="S33" t="n">
-        <v>15.9055508256441</v>
+        <v>19.34392706491078</v>
       </c>
       <c r="T33" t="n">
-        <v>3.451523307855237</v>
+        <v>4.197655011252186</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.0685144996395896</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.8730918751886495</v>
       </c>
       <c r="H34" t="n">
-        <v>6.382784535556057</v>
+        <v>7.762580490313635</v>
       </c>
       <c r="I34" t="n">
-        <v>21.58921395053111</v>
+        <v>26.2562538465823</v>
       </c>
       <c r="J34" t="n">
-        <v>50.75553715032661</v>
+        <v>61.72759557583752</v>
       </c>
       <c r="K34" t="n">
-        <v>83.40693902291036</v>
+        <v>101.4374014991903</v>
       </c>
       <c r="L34" t="n">
-        <v>106.7321659452799</v>
+        <v>129.8049502439561</v>
       </c>
       <c r="M34" t="n">
-        <v>112.5341040353712</v>
+        <v>136.8611200352535</v>
       </c>
       <c r="N34" t="n">
-        <v>109.8582945675001</v>
+        <v>133.6068685004595</v>
       </c>
       <c r="O34" t="n">
-        <v>101.4719161133186</v>
+        <v>123.407567958483</v>
       </c>
       <c r="P34" t="n">
-        <v>86.82675405014079</v>
+        <v>105.5964937046344</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.11434392331984</v>
+        <v>73.10953874875138</v>
       </c>
       <c r="R34" t="n">
-        <v>32.27939909290412</v>
+        <v>39.25738558802782</v>
       </c>
       <c r="S34" t="n">
-        <v>12.51104085343655</v>
+        <v>15.21561022487855</v>
       </c>
       <c r="T34" t="n">
-        <v>3.067391341218143</v>
+        <v>3.730483466715138</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.04762319319210821</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.600435127247357</v>
+        <v>1.946408565975608</v>
       </c>
       <c r="H35" t="n">
-        <v>16.390456246922</v>
+        <v>19.93365672629771</v>
       </c>
       <c r="I35" t="n">
-        <v>61.70077524320381</v>
+        <v>75.03891623977472</v>
       </c>
       <c r="J35" t="n">
-        <v>135.8349308812105</v>
+        <v>165.1989940264724</v>
       </c>
       <c r="K35" t="n">
-        <v>203.5813498175912</v>
+        <v>247.59046862422</v>
       </c>
       <c r="L35" t="n">
-        <v>252.5606663430876</v>
+        <v>307.1578697751961</v>
       </c>
       <c r="M35" t="n">
-        <v>281.0224045372727</v>
+        <v>341.7723131103648</v>
       </c>
       <c r="N35" t="n">
-        <v>279.8839375878409</v>
+        <v>340.633846160933</v>
       </c>
       <c r="O35" t="n">
-        <v>269.6553140459984</v>
+        <v>327.9479462705231</v>
       </c>
       <c r="P35" t="n">
-        <v>230.1445718420792</v>
+        <v>279.8959847980002</v>
       </c>
       <c r="Q35" t="n">
-        <v>172.8289888475332</v>
+        <v>210.1902280289986</v>
       </c>
       <c r="R35" t="n">
-        <v>100.5333330619519</v>
+        <v>122.2660870824654</v>
       </c>
       <c r="S35" t="n">
-        <v>36.4699154621492</v>
+        <v>44.35378519716922</v>
       </c>
       <c r="T35" t="n">
-        <v>7.00590476952531</v>
+        <v>8.520403497558231</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1557126852780486</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8563082853003202</v>
+        <v>1.041420394521761</v>
       </c>
       <c r="H36" t="n">
-        <v>8.270135281716252</v>
+        <v>10.05792854709175</v>
       </c>
       <c r="I36" t="n">
-        <v>29.48254403336629</v>
+        <v>35.85592147805188</v>
       </c>
       <c r="J36" t="n">
-        <v>80.90235427041316</v>
+        <v>98.39138911575995</v>
       </c>
       <c r="K36" t="n">
-        <v>138.2750093855346</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L36" t="n">
-        <v>169.0363433314465</v>
+        <v>226.1206869771921</v>
       </c>
       <c r="M36" t="n">
-        <v>173.4035213848624</v>
+        <v>199.9476111496914</v>
       </c>
       <c r="N36" t="n">
-        <v>160.2368887416667</v>
+        <v>220.9867973147587</v>
       </c>
       <c r="O36" t="n">
-        <v>173.9674182222222</v>
+        <v>234.7173267953142</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4487770454829</v>
+        <v>198.8656190205634</v>
       </c>
       <c r="Q36" t="n">
-        <v>109.3070014709672</v>
+        <v>132.936399834041</v>
       </c>
       <c r="R36" t="n">
-        <v>53.16622845048833</v>
+        <v>64.65941712653536</v>
       </c>
       <c r="S36" t="n">
-        <v>15.9055508256441</v>
+        <v>19.34392706491078</v>
       </c>
       <c r="T36" t="n">
-        <v>3.451523307855237</v>
+        <v>4.197655011252186</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.0685144996395896</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.8730918751886495</v>
       </c>
       <c r="H37" t="n">
-        <v>6.382784535556057</v>
+        <v>7.762580490313635</v>
       </c>
       <c r="I37" t="n">
-        <v>21.58921395053111</v>
+        <v>26.2562538465823</v>
       </c>
       <c r="J37" t="n">
-        <v>50.75553715032661</v>
+        <v>61.72759557583752</v>
       </c>
       <c r="K37" t="n">
-        <v>83.40693902291036</v>
+        <v>101.4374014991903</v>
       </c>
       <c r="L37" t="n">
-        <v>106.7321659452799</v>
+        <v>129.8049502439561</v>
       </c>
       <c r="M37" t="n">
-        <v>112.5341040353712</v>
+        <v>136.8611200352535</v>
       </c>
       <c r="N37" t="n">
-        <v>109.8582945675001</v>
+        <v>133.6068685004595</v>
       </c>
       <c r="O37" t="n">
-        <v>101.4719161133186</v>
+        <v>123.407567958483</v>
       </c>
       <c r="P37" t="n">
-        <v>86.82675405014079</v>
+        <v>105.5964937046344</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.11434392331984</v>
+        <v>73.10953874875138</v>
       </c>
       <c r="R37" t="n">
-        <v>32.27939909290412</v>
+        <v>39.25738558802782</v>
       </c>
       <c r="S37" t="n">
-        <v>12.51104085343655</v>
+        <v>15.21561022487855</v>
       </c>
       <c r="T37" t="n">
-        <v>3.067391341218143</v>
+        <v>3.730483466715138</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.04762319319210821</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.600435127247357</v>
+        <v>1.946408565975608</v>
       </c>
       <c r="H38" t="n">
-        <v>16.390456246922</v>
+        <v>19.93365672629771</v>
       </c>
       <c r="I38" t="n">
-        <v>61.70077524320381</v>
+        <v>75.03891623977472</v>
       </c>
       <c r="J38" t="n">
-        <v>135.8349308812105</v>
+        <v>165.1989940264724</v>
       </c>
       <c r="K38" t="n">
-        <v>203.5813498175912</v>
+        <v>247.59046862422</v>
       </c>
       <c r="L38" t="n">
-        <v>252.5606663430876</v>
+        <v>307.1578697751961</v>
       </c>
       <c r="M38" t="n">
-        <v>281.0224045372727</v>
+        <v>341.7723131103648</v>
       </c>
       <c r="N38" t="n">
-        <v>279.8839375878409</v>
+        <v>340.633846160933</v>
       </c>
       <c r="O38" t="n">
-        <v>269.6553140459984</v>
+        <v>327.9479462705231</v>
       </c>
       <c r="P38" t="n">
-        <v>230.1445718420792</v>
+        <v>279.8959847980002</v>
       </c>
       <c r="Q38" t="n">
-        <v>172.8289888475332</v>
+        <v>210.1902280289986</v>
       </c>
       <c r="R38" t="n">
-        <v>100.5333330619519</v>
+        <v>122.2660870824654</v>
       </c>
       <c r="S38" t="n">
-        <v>36.4699154621492</v>
+        <v>44.35378519716922</v>
       </c>
       <c r="T38" t="n">
-        <v>7.00590476952531</v>
+        <v>8.520403497558231</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1557126852780486</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8563082853003202</v>
+        <v>1.041420394521761</v>
       </c>
       <c r="H39" t="n">
-        <v>8.270135281716252</v>
+        <v>10.05792854709175</v>
       </c>
       <c r="I39" t="n">
-        <v>29.48254403336629</v>
+        <v>35.85592147805188</v>
       </c>
       <c r="J39" t="n">
-        <v>80.90235427041316</v>
+        <v>98.39138911575995</v>
       </c>
       <c r="K39" t="n">
-        <v>138.2750093855346</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L39" t="n">
-        <v>169.0363433314465</v>
+        <v>226.1206869771921</v>
       </c>
       <c r="M39" t="n">
-        <v>173.4035213848624</v>
+        <v>199.9476111496914</v>
       </c>
       <c r="N39" t="n">
-        <v>160.2368887416667</v>
+        <v>220.9867973147587</v>
       </c>
       <c r="O39" t="n">
-        <v>173.9674182222222</v>
+        <v>234.7173267953142</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4487770454829</v>
+        <v>198.8656190205634</v>
       </c>
       <c r="Q39" t="n">
-        <v>109.3070014709672</v>
+        <v>132.936399834041</v>
       </c>
       <c r="R39" t="n">
-        <v>53.16622845048833</v>
+        <v>64.65941712653536</v>
       </c>
       <c r="S39" t="n">
-        <v>15.9055508256441</v>
+        <v>19.34392706491078</v>
       </c>
       <c r="T39" t="n">
-        <v>3.451523307855237</v>
+        <v>4.197655011252186</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.0685144996395896</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.8730918751886495</v>
       </c>
       <c r="H40" t="n">
-        <v>6.382784535556057</v>
+        <v>7.762580490313635</v>
       </c>
       <c r="I40" t="n">
-        <v>21.58921395053111</v>
+        <v>26.2562538465823</v>
       </c>
       <c r="J40" t="n">
-        <v>50.75553715032661</v>
+        <v>61.72759557583752</v>
       </c>
       <c r="K40" t="n">
-        <v>83.40693902291036</v>
+        <v>101.4374014991903</v>
       </c>
       <c r="L40" t="n">
-        <v>106.7321659452799</v>
+        <v>129.8049502439561</v>
       </c>
       <c r="M40" t="n">
-        <v>112.5341040353712</v>
+        <v>136.8611200352535</v>
       </c>
       <c r="N40" t="n">
-        <v>109.8582945675001</v>
+        <v>133.6068685004595</v>
       </c>
       <c r="O40" t="n">
-        <v>101.4719161133186</v>
+        <v>123.407567958483</v>
       </c>
       <c r="P40" t="n">
-        <v>86.82675405014079</v>
+        <v>105.5964937046344</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.11434392331984</v>
+        <v>73.10953874875138</v>
       </c>
       <c r="R40" t="n">
-        <v>32.27939909290412</v>
+        <v>39.25738558802782</v>
       </c>
       <c r="S40" t="n">
-        <v>12.51104085343655</v>
+        <v>15.21561022487855</v>
       </c>
       <c r="T40" t="n">
-        <v>3.067391341218143</v>
+        <v>3.730483466715138</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.04762319319210821</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.600435127247357</v>
+        <v>1.946408565975608</v>
       </c>
       <c r="H41" t="n">
-        <v>16.390456246922</v>
+        <v>19.93365672629771</v>
       </c>
       <c r="I41" t="n">
-        <v>61.70077524320381</v>
+        <v>75.03891623977472</v>
       </c>
       <c r="J41" t="n">
-        <v>135.8349308812105</v>
+        <v>165.1989940264724</v>
       </c>
       <c r="K41" t="n">
-        <v>203.5813498175912</v>
+        <v>247.59046862422</v>
       </c>
       <c r="L41" t="n">
-        <v>252.5606663430876</v>
+        <v>307.1578697751961</v>
       </c>
       <c r="M41" t="n">
-        <v>281.0224045372727</v>
+        <v>341.7723131103648</v>
       </c>
       <c r="N41" t="n">
-        <v>279.8839375878409</v>
+        <v>340.633846160933</v>
       </c>
       <c r="O41" t="n">
-        <v>269.6553140459984</v>
+        <v>327.9479462705231</v>
       </c>
       <c r="P41" t="n">
-        <v>230.1445718420792</v>
+        <v>279.8959847980002</v>
       </c>
       <c r="Q41" t="n">
-        <v>172.8289888475332</v>
+        <v>210.1902280289986</v>
       </c>
       <c r="R41" t="n">
-        <v>100.5333330619519</v>
+        <v>122.2660870824654</v>
       </c>
       <c r="S41" t="n">
-        <v>36.4699154621492</v>
+        <v>44.35378519716922</v>
       </c>
       <c r="T41" t="n">
-        <v>7.00590476952531</v>
+        <v>8.520403497558231</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.1557126852780486</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8563082853003202</v>
+        <v>1.041420394521761</v>
       </c>
       <c r="H42" t="n">
-        <v>8.270135281716252</v>
+        <v>10.05792854709175</v>
       </c>
       <c r="I42" t="n">
-        <v>29.48254403336629</v>
+        <v>35.85592147805188</v>
       </c>
       <c r="J42" t="n">
-        <v>80.90235427041316</v>
+        <v>98.39138911575995</v>
       </c>
       <c r="K42" t="n">
-        <v>138.2750093855346</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L42" t="n">
-        <v>169.0363433314465</v>
+        <v>226.1206869771921</v>
       </c>
       <c r="M42" t="n">
-        <v>173.4035213848624</v>
+        <v>234.1534299579544</v>
       </c>
       <c r="N42" t="n">
-        <v>160.2368887416667</v>
+        <v>220.9867973147587</v>
       </c>
       <c r="O42" t="n">
-        <v>173.9674182222222</v>
+        <v>234.7173267953142</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4487770454829</v>
+        <v>164.6598002123004</v>
       </c>
       <c r="Q42" t="n">
-        <v>109.3070014709672</v>
+        <v>132.936399834041</v>
       </c>
       <c r="R42" t="n">
-        <v>53.16622845048833</v>
+        <v>64.65941712653536</v>
       </c>
       <c r="S42" t="n">
-        <v>15.9055508256441</v>
+        <v>19.34392706491078</v>
       </c>
       <c r="T42" t="n">
-        <v>3.451523307855237</v>
+        <v>4.197655011252186</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.0685144996395896</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.8730918751886495</v>
       </c>
       <c r="H43" t="n">
-        <v>6.382784535556057</v>
+        <v>7.762580490313635</v>
       </c>
       <c r="I43" t="n">
-        <v>21.58921395053111</v>
+        <v>26.2562538465823</v>
       </c>
       <c r="J43" t="n">
-        <v>50.75553715032661</v>
+        <v>61.72759557583752</v>
       </c>
       <c r="K43" t="n">
-        <v>83.40693902291036</v>
+        <v>101.4374014991903</v>
       </c>
       <c r="L43" t="n">
-        <v>106.7321659452799</v>
+        <v>129.8049502439561</v>
       </c>
       <c r="M43" t="n">
-        <v>112.5341040353712</v>
+        <v>136.8611200352535</v>
       </c>
       <c r="N43" t="n">
-        <v>109.8582945675001</v>
+        <v>133.6068685004595</v>
       </c>
       <c r="O43" t="n">
-        <v>101.4719161133186</v>
+        <v>123.407567958483</v>
       </c>
       <c r="P43" t="n">
-        <v>86.82675405014079</v>
+        <v>105.5964937046344</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.11434392331984</v>
+        <v>73.10953874875138</v>
       </c>
       <c r="R43" t="n">
-        <v>32.27939909290412</v>
+        <v>39.25738558802782</v>
       </c>
       <c r="S43" t="n">
-        <v>12.51104085343655</v>
+        <v>15.21561022487855</v>
       </c>
       <c r="T43" t="n">
-        <v>3.067391341218143</v>
+        <v>3.730483466715138</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.04762319319210821</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.666104223186756</v>
+        <v>1.946408565975608</v>
       </c>
       <c r="H44" t="n">
-        <v>17.06298987571137</v>
+        <v>19.93365672629771</v>
       </c>
       <c r="I44" t="n">
-        <v>64.23248306440749</v>
+        <v>75.03891623977472</v>
       </c>
       <c r="J44" t="n">
-        <v>141.4085133126971</v>
+        <v>165.1989940264724</v>
       </c>
       <c r="K44" t="n">
-        <v>211.9347050801925</v>
+        <v>247.59046862422</v>
       </c>
       <c r="L44" t="n">
-        <v>262.9237422005443</v>
+        <v>307.1578697751961</v>
       </c>
       <c r="M44" t="n">
-        <v>281.0224045372727</v>
+        <v>341.7723131103648</v>
       </c>
       <c r="N44" t="n">
-        <v>279.8839375878409</v>
+        <v>340.633846160933</v>
       </c>
       <c r="O44" t="n">
-        <v>280.7198179344578</v>
+        <v>327.9479462705231</v>
       </c>
       <c r="P44" t="n">
-        <v>239.5878699245347</v>
+        <v>279.8959847980002</v>
       </c>
       <c r="Q44" t="n">
-        <v>179.920512431659</v>
+        <v>210.1902280289986</v>
       </c>
       <c r="R44" t="n">
-        <v>104.6584194097552</v>
+        <v>122.2660870824654</v>
       </c>
       <c r="S44" t="n">
-        <v>37.96634998586825</v>
+        <v>44.35378519716922</v>
       </c>
       <c r="T44" t="n">
-        <v>7.29337123700003</v>
+        <v>8.520403497558231</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1332883378549405</v>
+        <v>0.1557126852780486</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8914443492267639</v>
+        <v>1.041420394521761</v>
       </c>
       <c r="H45" t="n">
-        <v>8.6094756885848</v>
+        <v>10.05792854709175</v>
       </c>
       <c r="I45" t="n">
-        <v>30.692272550132</v>
+        <v>35.85592147805188</v>
       </c>
       <c r="J45" t="n">
-        <v>84.2219417837444</v>
+        <v>98.39138911575995</v>
       </c>
       <c r="K45" t="n">
-        <v>143.9487131819376</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>226.1206869771921</v>
       </c>
       <c r="M45" t="n">
-        <v>173.4035213848624</v>
+        <v>234.1534299579544</v>
       </c>
       <c r="N45" t="n">
-        <v>160.2368887416667</v>
+        <v>220.9867973147587</v>
       </c>
       <c r="O45" t="n">
-        <v>173.9674182222222</v>
+        <v>200.5115079870512</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4487770454829</v>
+        <v>198.8656190205634</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.792089210069</v>
+        <v>132.936399834041</v>
       </c>
       <c r="R45" t="n">
-        <v>55.34774652479857</v>
+        <v>64.65941712653536</v>
       </c>
       <c r="S45" t="n">
-        <v>16.55818780252343</v>
+        <v>19.34392706491078</v>
       </c>
       <c r="T45" t="n">
-        <v>3.59314630236577</v>
+        <v>4.197655011252186</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05864765455439238</v>
+        <v>0.0685144996395896</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7473569968352074</v>
+        <v>0.8730918751886495</v>
       </c>
       <c r="H46" t="n">
-        <v>6.644683117316667</v>
+        <v>7.762580490313635</v>
       </c>
       <c r="I46" t="n">
-        <v>22.4750631411897</v>
+        <v>26.2562538465823</v>
       </c>
       <c r="J46" t="n">
-        <v>52.83813967624916</v>
+        <v>61.72759557583752</v>
       </c>
       <c r="K46" t="n">
-        <v>86.82929472321771</v>
+        <v>101.4374014991903</v>
       </c>
       <c r="L46" t="n">
-        <v>111.1116029658453</v>
+        <v>129.8049502439561</v>
       </c>
       <c r="M46" t="n">
-        <v>117.1516063311771</v>
+        <v>136.8611200352535</v>
       </c>
       <c r="N46" t="n">
-        <v>114.3660029793369</v>
+        <v>133.6068685004595</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6355144253983</v>
+        <v>123.407567958483</v>
       </c>
       <c r="P46" t="n">
-        <v>90.38943168995996</v>
+        <v>105.5964937046344</v>
       </c>
       <c r="Q46" t="n">
-        <v>62.5809572531736</v>
+        <v>73.10953874875138</v>
       </c>
       <c r="R46" t="n">
-        <v>33.60388823951759</v>
+        <v>39.25738558802782</v>
       </c>
       <c r="S46" t="n">
-        <v>13.02439420848266</v>
+        <v>15.21561022487855</v>
       </c>
       <c r="T46" t="n">
-        <v>3.19325262284134</v>
+        <v>3.730483466715138</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04076492710010227</v>
+        <v>0.04762319319210821</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36363,22 +36363,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>19.52284351181169</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>52.29430353777818</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>57.08434364574561</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>26.54408976482904</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>35.4168419750805</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36521,19 +36521,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>33.85110274115554</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>60.14159085232663</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>25.05258179217299</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>52.2943035377782</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>19.52284351181169</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.08434364574561</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.211023166817484</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>33.85110274115554</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>60.14159085232663</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>25.05258179217299</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>52.2943035377782</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>19.52284351181169</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>57.08434364574561</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>26.54408976482904</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>35.4168419750805</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>13.21118712247204</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>20.03159789791806</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>25.05258179217299</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>58.29536681256308</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>57.08434364574561</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>26.54408976482904</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>35.4168419750805</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>13.21118712247204</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>45.69249741085647</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>60.14159085232663</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>58.29536681256309</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>57.08434364574561</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>26.54408976482904</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>35.4168419750805</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>13.21118712247204</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>20.6399156186835</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>60.14159085232663</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>25.05258179217299</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>58.29536681256308</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>57.08434364574561</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>26.54408976482904</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>35.4168419750805</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>13.21118712247204</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>20.6399156186835</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>60.14159085232663</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>25.05258179217299</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>58.29536681256308</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>57.08434364574561</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1.211023166817484</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>33.85110274115554</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>60.14159085232663</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>25.05258179217299</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>58.29536681256309</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>57.08434364574561</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>26.54408976482904</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>35.4168419750805</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>33.85110274115554</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>60.14159085232663</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>25.05258179217299</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
